--- a/Covid-19 Resource Planning Data Input Template SEIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SEIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\sirtool v4.0\sirtool\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79912DEF-0687-4C7E-9579-41346436E655}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE986D4-069B-4BB1-8A00-0A1EF529F00D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -160,13 +160,13 @@
     <t>Number of patients currently infected with COVID-19 in the administrative unit</t>
   </si>
   <si>
-    <t>Mean_Recovery_Time</t>
+    <t>Incubation_Period_in_days</t>
   </si>
   <si>
-    <t>Mean_Deceased_Time</t>
+    <t>Mean_Recovery_Time_in_days</t>
   </si>
   <si>
-    <t>Incubation period</t>
+    <t>Mean_Deceased_Time_in_days</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6925,9 +6925,7 @@
   </sheetPr>
   <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6970,13 +6968,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="26" t="s">
         <v>4</v>
@@ -9521,21 +9519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9758,10 +9741,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9784,20 +9793,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Covid-19 Resource Planning Data Input Template SEIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SEIR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\sirtool v4.0\sirtool\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE986D4-069B-4BB1-8A00-0A1EF529F00D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588D150E-86E1-472B-A5E5-AAF7CCBD8C2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -585,7 +585,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6925,7 +6925,9 @@
   </sheetPr>
   <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7033,7 +7035,7 @@
         <v>0.03</v>
       </c>
       <c r="M2" s="30">
-        <v>0.03</v>
+        <v>2</v>
       </c>
       <c r="N2" s="30">
         <v>0.7</v>
@@ -9519,6 +9521,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9741,36 +9758,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9793,9 +9784,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Covid-19 Resource Planning Data Input Template SEIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SEIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588D150E-86E1-472B-A5E5-AAF7CCBD8C2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D20505-0BFF-483C-8CC3-7FA77C5458DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>District</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Mean_Deceased_Time_in_days</t>
+  </si>
+  <si>
+    <t>Multiple_Suspected_Positive</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -400,6 +403,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +591,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6925,8 +6931,8 @@
   </sheetPr>
   <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6941,7 +6947,7 @@
     <col min="9" max="10" width="14.44140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
@@ -6985,7 +6991,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N1" s="26" t="s">
         <v>9</v>
@@ -7034,7 +7040,7 @@
       <c r="L2" s="30">
         <v>0.03</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="31">
         <v>2</v>
       </c>
       <c r="N2" s="30">
@@ -7053,7 +7059,7 @@
       <c r="G3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
@@ -7062,7 +7068,7 @@
       <c r="G4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
@@ -7071,7 +7077,7 @@
       <c r="G5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
@@ -7080,7 +7086,7 @@
       <c r="G6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
@@ -7089,7 +7095,7 @@
       <c r="G7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
@@ -7098,7 +7104,7 @@
       <c r="G8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
@@ -7107,7 +7113,7 @@
       <c r="G9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
@@ -7116,7 +7122,7 @@
       <c r="G10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
@@ -7125,7 +7131,7 @@
       <c r="G11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
@@ -7134,7 +7140,7 @@
       <c r="G12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
@@ -7143,7 +7149,7 @@
       <c r="G13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
@@ -7152,7 +7158,7 @@
       <c r="G14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
@@ -7161,7 +7167,7 @@
       <c r="G15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
@@ -7170,7 +7176,7 @@
       <c r="G16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
@@ -7179,7 +7185,7 @@
       <c r="G17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
@@ -7188,7 +7194,7 @@
       <c r="G18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
@@ -7197,7 +7203,7 @@
       <c r="G19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
@@ -7206,7 +7212,7 @@
       <c r="G20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
@@ -7215,7 +7221,7 @@
       <c r="G21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
@@ -7224,7 +7230,7 @@
       <c r="G22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
@@ -7233,7 +7239,7 @@
       <c r="G23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
@@ -7242,7 +7248,7 @@
       <c r="G24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
@@ -7251,7 +7257,7 @@
       <c r="G25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
@@ -7260,7 +7266,7 @@
       <c r="G26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
@@ -7269,7 +7275,7 @@
       <c r="G27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
@@ -7278,7 +7284,7 @@
       <c r="G28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
@@ -7287,7 +7293,7 @@
       <c r="G29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
@@ -7296,7 +7302,7 @@
       <c r="G30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
@@ -7305,7 +7311,7 @@
       <c r="G31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
@@ -7314,7 +7320,7 @@
       <c r="G32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
@@ -7323,7 +7329,7 @@
       <c r="G33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
@@ -7332,7 +7338,7 @@
       <c r="G34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="M34" s="32"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
@@ -7341,7 +7347,7 @@
       <c r="G35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
@@ -7350,7 +7356,7 @@
       <c r="G36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
@@ -7359,7 +7365,7 @@
       <c r="G37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
@@ -7368,7 +7374,7 @@
       <c r="G38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
@@ -7377,7 +7383,7 @@
       <c r="G39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
@@ -7386,7 +7392,7 @@
       <c r="G40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
+      <c r="M40" s="32"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
@@ -7395,7 +7401,7 @@
       <c r="G41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+      <c r="M41" s="32"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
@@ -7404,7 +7410,7 @@
       <c r="G42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
@@ -7413,7 +7419,7 @@
       <c r="G43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
@@ -7422,7 +7428,7 @@
       <c r="G44" s="25"/>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
+      <c r="M44" s="32"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
@@ -7431,7 +7437,7 @@
       <c r="G45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
+      <c r="M45" s="32"/>
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
@@ -7440,7 +7446,7 @@
       <c r="G46" s="25"/>
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
@@ -7449,7 +7455,7 @@
       <c r="G47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
+      <c r="M47" s="32"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
@@ -7458,7 +7464,7 @@
       <c r="G48" s="25"/>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
@@ -7467,7 +7473,7 @@
       <c r="G49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
@@ -7476,7 +7482,7 @@
       <c r="G50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
@@ -7485,7 +7491,7 @@
       <c r="G51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
@@ -7494,7 +7500,7 @@
       <c r="G52" s="25"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+      <c r="M52" s="32"/>
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
@@ -7503,7 +7509,7 @@
       <c r="G53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="M53" s="32"/>
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
@@ -7512,7 +7518,7 @@
       <c r="G54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
+      <c r="M54" s="32"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
@@ -7521,7 +7527,7 @@
       <c r="G55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
+      <c r="M55" s="32"/>
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
@@ -7530,7 +7536,7 @@
       <c r="G56" s="25"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
+      <c r="M56" s="32"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
@@ -7539,7 +7545,7 @@
       <c r="G57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
@@ -7548,7 +7554,7 @@
       <c r="G58" s="25"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
@@ -7557,7 +7563,7 @@
       <c r="G59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
+      <c r="M59" s="32"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
@@ -7566,7 +7572,7 @@
       <c r="G60" s="25"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
+      <c r="M60" s="32"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
@@ -7575,7 +7581,7 @@
       <c r="G61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
+      <c r="M61" s="32"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
@@ -7584,7 +7590,7 @@
       <c r="G62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
+      <c r="M62" s="32"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
@@ -7593,7 +7599,7 @@
       <c r="G63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
+      <c r="M63" s="32"/>
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
@@ -7602,7 +7608,7 @@
       <c r="G64" s="25"/>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
+      <c r="M64" s="32"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
@@ -7611,7 +7617,7 @@
       <c r="G65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+      <c r="M65" s="32"/>
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
@@ -7620,7 +7626,7 @@
       <c r="G66" s="25"/>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
+      <c r="M66" s="32"/>
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
@@ -7629,7 +7635,7 @@
       <c r="G67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
+      <c r="M67" s="32"/>
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
@@ -7638,7 +7644,7 @@
       <c r="G68" s="25"/>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
+      <c r="M68" s="32"/>
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
@@ -7647,7 +7653,7 @@
       <c r="G69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
+      <c r="M69" s="32"/>
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
@@ -7656,7 +7662,7 @@
       <c r="G70" s="25"/>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
+      <c r="M70" s="32"/>
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
@@ -7665,7 +7671,7 @@
       <c r="G71" s="25"/>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
+      <c r="M71" s="32"/>
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
@@ -7674,7 +7680,7 @@
       <c r="G72" s="25"/>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
+      <c r="M72" s="32"/>
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
@@ -7683,7 +7689,7 @@
       <c r="G73" s="25"/>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
+      <c r="M73" s="32"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
@@ -7692,7 +7698,7 @@
       <c r="G74" s="25"/>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
+      <c r="M74" s="32"/>
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
@@ -7701,7 +7707,7 @@
       <c r="G75" s="25"/>
       <c r="K75" s="25"/>
       <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
+      <c r="M75" s="32"/>
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
@@ -7710,7 +7716,7 @@
       <c r="G76" s="25"/>
       <c r="K76" s="25"/>
       <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
+      <c r="M76" s="32"/>
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
@@ -7719,7 +7725,7 @@
       <c r="G77" s="25"/>
       <c r="K77" s="25"/>
       <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
+      <c r="M77" s="32"/>
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
@@ -7728,7 +7734,7 @@
       <c r="G78" s="25"/>
       <c r="K78" s="25"/>
       <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
+      <c r="M78" s="32"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
@@ -7737,7 +7743,7 @@
       <c r="G79" s="25"/>
       <c r="K79" s="25"/>
       <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
+      <c r="M79" s="32"/>
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
@@ -7746,7 +7752,7 @@
       <c r="G80" s="25"/>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
+      <c r="M80" s="32"/>
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
@@ -7755,7 +7761,7 @@
       <c r="G81" s="25"/>
       <c r="K81" s="25"/>
       <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
+      <c r="M81" s="32"/>
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
@@ -7764,7 +7770,7 @@
       <c r="G82" s="25"/>
       <c r="K82" s="25"/>
       <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
+      <c r="M82" s="32"/>
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
@@ -7773,7 +7779,7 @@
       <c r="G83" s="25"/>
       <c r="K83" s="25"/>
       <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
+      <c r="M83" s="32"/>
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
@@ -7782,7 +7788,7 @@
       <c r="G84" s="25"/>
       <c r="K84" s="25"/>
       <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
+      <c r="M84" s="32"/>
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
@@ -7791,7 +7797,7 @@
       <c r="G85" s="25"/>
       <c r="K85" s="25"/>
       <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
+      <c r="M85" s="32"/>
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
@@ -7800,7 +7806,7 @@
       <c r="G86" s="25"/>
       <c r="K86" s="25"/>
       <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
+      <c r="M86" s="32"/>
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
@@ -7809,7 +7815,7 @@
       <c r="G87" s="25"/>
       <c r="K87" s="25"/>
       <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
+      <c r="M87" s="32"/>
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
@@ -7818,7 +7824,7 @@
       <c r="G88" s="25"/>
       <c r="K88" s="25"/>
       <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
+      <c r="M88" s="32"/>
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
@@ -7827,7 +7833,7 @@
       <c r="G89" s="25"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
+      <c r="M89" s="32"/>
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
@@ -7836,7 +7842,7 @@
       <c r="G90" s="25"/>
       <c r="K90" s="25"/>
       <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
+      <c r="M90" s="32"/>
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
@@ -7845,7 +7851,7 @@
       <c r="G91" s="25"/>
       <c r="K91" s="25"/>
       <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
+      <c r="M91" s="32"/>
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
@@ -7854,7 +7860,7 @@
       <c r="G92" s="25"/>
       <c r="K92" s="25"/>
       <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
+      <c r="M92" s="32"/>
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
@@ -7863,7 +7869,7 @@
       <c r="G93" s="25"/>
       <c r="K93" s="25"/>
       <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
+      <c r="M93" s="32"/>
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
@@ -7872,7 +7878,7 @@
       <c r="G94" s="25"/>
       <c r="K94" s="25"/>
       <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
+      <c r="M94" s="32"/>
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
@@ -7881,7 +7887,7 @@
       <c r="G95" s="25"/>
       <c r="K95" s="25"/>
       <c r="L95" s="25"/>
-      <c r="M95" s="25"/>
+      <c r="M95" s="32"/>
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
@@ -7890,7 +7896,7 @@
       <c r="G96" s="25"/>
       <c r="K96" s="25"/>
       <c r="L96" s="25"/>
-      <c r="M96" s="25"/>
+      <c r="M96" s="32"/>
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
@@ -7899,7 +7905,7 @@
       <c r="G97" s="25"/>
       <c r="K97" s="25"/>
       <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
+      <c r="M97" s="32"/>
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
@@ -7908,7 +7914,7 @@
       <c r="G98" s="25"/>
       <c r="K98" s="25"/>
       <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
+      <c r="M98" s="32"/>
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
@@ -7917,7 +7923,7 @@
       <c r="G99" s="25"/>
       <c r="K99" s="25"/>
       <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
+      <c r="M99" s="32"/>
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
@@ -7926,7 +7932,7 @@
       <c r="G100" s="25"/>
       <c r="K100" s="25"/>
       <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
+      <c r="M100" s="32"/>
       <c r="N100" s="25"/>
       <c r="O100" s="25"/>
     </row>
@@ -7935,7 +7941,7 @@
       <c r="G101" s="25"/>
       <c r="K101" s="25"/>
       <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
+      <c r="M101" s="32"/>
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
     </row>
@@ -7944,7 +7950,7 @@
       <c r="G102" s="25"/>
       <c r="K102" s="25"/>
       <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
+      <c r="M102" s="32"/>
       <c r="N102" s="25"/>
       <c r="O102" s="25"/>
     </row>
@@ -7953,7 +7959,7 @@
       <c r="G103" s="25"/>
       <c r="K103" s="25"/>
       <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
+      <c r="M103" s="32"/>
       <c r="N103" s="25"/>
       <c r="O103" s="25"/>
     </row>
@@ -7962,7 +7968,7 @@
       <c r="G104" s="25"/>
       <c r="K104" s="25"/>
       <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
+      <c r="M104" s="32"/>
       <c r="N104" s="25"/>
       <c r="O104" s="25"/>
     </row>
@@ -7971,7 +7977,7 @@
       <c r="G105" s="25"/>
       <c r="K105" s="25"/>
       <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
+      <c r="M105" s="32"/>
       <c r="N105" s="25"/>
       <c r="O105" s="25"/>
     </row>
@@ -7980,7 +7986,7 @@
       <c r="G106" s="25"/>
       <c r="K106" s="25"/>
       <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
+      <c r="M106" s="32"/>
       <c r="N106" s="25"/>
       <c r="O106" s="25"/>
     </row>
@@ -7989,7 +7995,7 @@
       <c r="G107" s="25"/>
       <c r="K107" s="25"/>
       <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
+      <c r="M107" s="32"/>
       <c r="N107" s="25"/>
       <c r="O107" s="25"/>
     </row>
@@ -7998,7 +8004,7 @@
       <c r="G108" s="25"/>
       <c r="K108" s="25"/>
       <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
+      <c r="M108" s="32"/>
       <c r="N108" s="25"/>
       <c r="O108" s="25"/>
     </row>
@@ -8007,7 +8013,7 @@
       <c r="G109" s="25"/>
       <c r="K109" s="25"/>
       <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
+      <c r="M109" s="32"/>
       <c r="N109" s="25"/>
       <c r="O109" s="25"/>
     </row>
@@ -8016,7 +8022,7 @@
       <c r="G110" s="25"/>
       <c r="K110" s="25"/>
       <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
+      <c r="M110" s="32"/>
       <c r="N110" s="25"/>
       <c r="O110" s="25"/>
     </row>
@@ -8025,7 +8031,7 @@
       <c r="G111" s="25"/>
       <c r="K111" s="25"/>
       <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
+      <c r="M111" s="32"/>
       <c r="N111" s="25"/>
       <c r="O111" s="25"/>
     </row>
@@ -8034,7 +8040,7 @@
       <c r="G112" s="25"/>
       <c r="K112" s="25"/>
       <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
+      <c r="M112" s="32"/>
       <c r="N112" s="25"/>
       <c r="O112" s="25"/>
     </row>
@@ -8043,7 +8049,7 @@
       <c r="G113" s="25"/>
       <c r="K113" s="25"/>
       <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
+      <c r="M113" s="32"/>
       <c r="N113" s="25"/>
       <c r="O113" s="25"/>
     </row>
@@ -8052,7 +8058,7 @@
       <c r="G114" s="25"/>
       <c r="K114" s="25"/>
       <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
+      <c r="M114" s="32"/>
       <c r="N114" s="25"/>
       <c r="O114" s="25"/>
     </row>
@@ -8061,7 +8067,7 @@
       <c r="G115" s="25"/>
       <c r="K115" s="25"/>
       <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
+      <c r="M115" s="32"/>
       <c r="N115" s="25"/>
       <c r="O115" s="25"/>
     </row>
@@ -8070,7 +8076,7 @@
       <c r="G116" s="25"/>
       <c r="K116" s="25"/>
       <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
+      <c r="M116" s="32"/>
       <c r="N116" s="25"/>
       <c r="O116" s="25"/>
     </row>
@@ -8079,7 +8085,7 @@
       <c r="G117" s="25"/>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
+      <c r="M117" s="32"/>
       <c r="N117" s="25"/>
       <c r="O117" s="25"/>
     </row>
@@ -8088,7 +8094,7 @@
       <c r="G118" s="25"/>
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
+      <c r="M118" s="32"/>
       <c r="N118" s="25"/>
       <c r="O118" s="25"/>
     </row>
@@ -8097,7 +8103,7 @@
       <c r="G119" s="25"/>
       <c r="K119" s="25"/>
       <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
+      <c r="M119" s="32"/>
       <c r="N119" s="25"/>
       <c r="O119" s="25"/>
     </row>
@@ -8106,7 +8112,7 @@
       <c r="G120" s="25"/>
       <c r="K120" s="25"/>
       <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
+      <c r="M120" s="32"/>
       <c r="N120" s="25"/>
       <c r="O120" s="25"/>
     </row>
@@ -8115,7 +8121,7 @@
       <c r="G121" s="25"/>
       <c r="K121" s="25"/>
       <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
+      <c r="M121" s="32"/>
       <c r="N121" s="25"/>
       <c r="O121" s="25"/>
     </row>
@@ -8124,7 +8130,7 @@
       <c r="G122" s="25"/>
       <c r="K122" s="25"/>
       <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
+      <c r="M122" s="32"/>
       <c r="N122" s="25"/>
       <c r="O122" s="25"/>
     </row>
@@ -8133,7 +8139,7 @@
       <c r="G123" s="25"/>
       <c r="K123" s="25"/>
       <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
+      <c r="M123" s="32"/>
       <c r="N123" s="25"/>
       <c r="O123" s="25"/>
     </row>
@@ -8142,7 +8148,7 @@
       <c r="G124" s="25"/>
       <c r="K124" s="25"/>
       <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
+      <c r="M124" s="32"/>
       <c r="N124" s="25"/>
       <c r="O124" s="25"/>
     </row>
@@ -8151,7 +8157,7 @@
       <c r="G125" s="25"/>
       <c r="K125" s="25"/>
       <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
+      <c r="M125" s="32"/>
       <c r="N125" s="25"/>
       <c r="O125" s="25"/>
     </row>
@@ -8160,7 +8166,7 @@
       <c r="G126" s="25"/>
       <c r="K126" s="25"/>
       <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
+      <c r="M126" s="32"/>
       <c r="N126" s="25"/>
       <c r="O126" s="25"/>
     </row>
@@ -8169,7 +8175,7 @@
       <c r="G127" s="25"/>
       <c r="K127" s="25"/>
       <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
+      <c r="M127" s="32"/>
       <c r="N127" s="25"/>
       <c r="O127" s="25"/>
     </row>
@@ -8178,7 +8184,7 @@
       <c r="G128" s="25"/>
       <c r="K128" s="25"/>
       <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
+      <c r="M128" s="32"/>
       <c r="N128" s="25"/>
       <c r="O128" s="25"/>
     </row>
@@ -8187,7 +8193,7 @@
       <c r="G129" s="25"/>
       <c r="K129" s="25"/>
       <c r="L129" s="25"/>
-      <c r="M129" s="25"/>
+      <c r="M129" s="32"/>
       <c r="N129" s="25"/>
       <c r="O129" s="25"/>
     </row>
@@ -8196,7 +8202,7 @@
       <c r="G130" s="25"/>
       <c r="K130" s="25"/>
       <c r="L130" s="25"/>
-      <c r="M130" s="25"/>
+      <c r="M130" s="32"/>
       <c r="N130" s="25"/>
       <c r="O130" s="25"/>
     </row>
@@ -8205,7 +8211,7 @@
       <c r="G131" s="25"/>
       <c r="K131" s="25"/>
       <c r="L131" s="25"/>
-      <c r="M131" s="25"/>
+      <c r="M131" s="32"/>
       <c r="N131" s="25"/>
       <c r="O131" s="25"/>
     </row>
@@ -8214,7 +8220,7 @@
       <c r="G132" s="25"/>
       <c r="K132" s="25"/>
       <c r="L132" s="25"/>
-      <c r="M132" s="25"/>
+      <c r="M132" s="32"/>
       <c r="N132" s="25"/>
       <c r="O132" s="25"/>
     </row>
@@ -8223,7 +8229,7 @@
       <c r="G133" s="25"/>
       <c r="K133" s="25"/>
       <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
+      <c r="M133" s="32"/>
       <c r="N133" s="25"/>
       <c r="O133" s="25"/>
     </row>
@@ -8232,7 +8238,7 @@
       <c r="G134" s="25"/>
       <c r="K134" s="25"/>
       <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
+      <c r="M134" s="32"/>
       <c r="N134" s="25"/>
       <c r="O134" s="25"/>
     </row>
@@ -8241,7 +8247,7 @@
       <c r="G135" s="25"/>
       <c r="K135" s="25"/>
       <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
+      <c r="M135" s="32"/>
       <c r="N135" s="25"/>
       <c r="O135" s="25"/>
     </row>
@@ -8250,7 +8256,7 @@
       <c r="G136" s="25"/>
       <c r="K136" s="25"/>
       <c r="L136" s="25"/>
-      <c r="M136" s="25"/>
+      <c r="M136" s="32"/>
       <c r="N136" s="25"/>
       <c r="O136" s="25"/>
     </row>
@@ -8259,7 +8265,7 @@
       <c r="G137" s="25"/>
       <c r="K137" s="25"/>
       <c r="L137" s="25"/>
-      <c r="M137" s="25"/>
+      <c r="M137" s="32"/>
       <c r="N137" s="25"/>
       <c r="O137" s="25"/>
     </row>
@@ -8268,7 +8274,7 @@
       <c r="G138" s="25"/>
       <c r="K138" s="25"/>
       <c r="L138" s="25"/>
-      <c r="M138" s="25"/>
+      <c r="M138" s="32"/>
       <c r="N138" s="25"/>
       <c r="O138" s="25"/>
     </row>
@@ -8277,7 +8283,7 @@
       <c r="G139" s="25"/>
       <c r="K139" s="25"/>
       <c r="L139" s="25"/>
-      <c r="M139" s="25"/>
+      <c r="M139" s="32"/>
       <c r="N139" s="25"/>
       <c r="O139" s="25"/>
     </row>
@@ -8286,7 +8292,7 @@
       <c r="G140" s="25"/>
       <c r="K140" s="25"/>
       <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
+      <c r="M140" s="32"/>
       <c r="N140" s="25"/>
       <c r="O140" s="25"/>
     </row>
@@ -8295,7 +8301,7 @@
       <c r="G141" s="25"/>
       <c r="K141" s="25"/>
       <c r="L141" s="25"/>
-      <c r="M141" s="25"/>
+      <c r="M141" s="32"/>
       <c r="N141" s="25"/>
       <c r="O141" s="25"/>
     </row>
@@ -8304,7 +8310,7 @@
       <c r="G142" s="25"/>
       <c r="K142" s="25"/>
       <c r="L142" s="25"/>
-      <c r="M142" s="25"/>
+      <c r="M142" s="32"/>
       <c r="N142" s="25"/>
       <c r="O142" s="25"/>
     </row>
@@ -8313,7 +8319,7 @@
       <c r="G143" s="25"/>
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
+      <c r="M143" s="32"/>
       <c r="N143" s="25"/>
       <c r="O143" s="25"/>
     </row>
@@ -8322,7 +8328,7 @@
       <c r="G144" s="25"/>
       <c r="K144" s="25"/>
       <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
+      <c r="M144" s="32"/>
       <c r="N144" s="25"/>
       <c r="O144" s="25"/>
     </row>
@@ -8331,7 +8337,7 @@
       <c r="G145" s="25"/>
       <c r="K145" s="25"/>
       <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
+      <c r="M145" s="32"/>
       <c r="N145" s="25"/>
       <c r="O145" s="25"/>
     </row>
@@ -8340,7 +8346,7 @@
       <c r="G146" s="25"/>
       <c r="K146" s="25"/>
       <c r="L146" s="25"/>
-      <c r="M146" s="25"/>
+      <c r="M146" s="32"/>
       <c r="N146" s="25"/>
       <c r="O146" s="25"/>
     </row>
@@ -8349,7 +8355,7 @@
       <c r="G147" s="25"/>
       <c r="K147" s="25"/>
       <c r="L147" s="25"/>
-      <c r="M147" s="25"/>
+      <c r="M147" s="32"/>
       <c r="N147" s="25"/>
       <c r="O147" s="25"/>
     </row>
@@ -8358,7 +8364,7 @@
       <c r="G148" s="25"/>
       <c r="K148" s="25"/>
       <c r="L148" s="25"/>
-      <c r="M148" s="25"/>
+      <c r="M148" s="32"/>
       <c r="N148" s="25"/>
       <c r="O148" s="25"/>
     </row>
@@ -8367,7 +8373,7 @@
       <c r="G149" s="25"/>
       <c r="K149" s="25"/>
       <c r="L149" s="25"/>
-      <c r="M149" s="25"/>
+      <c r="M149" s="32"/>
       <c r="N149" s="25"/>
       <c r="O149" s="25"/>
     </row>
@@ -8376,7 +8382,7 @@
       <c r="G150" s="25"/>
       <c r="K150" s="25"/>
       <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
+      <c r="M150" s="32"/>
       <c r="N150" s="25"/>
       <c r="O150" s="25"/>
     </row>
@@ -8385,7 +8391,7 @@
       <c r="G151" s="25"/>
       <c r="K151" s="25"/>
       <c r="L151" s="25"/>
-      <c r="M151" s="25"/>
+      <c r="M151" s="32"/>
       <c r="N151" s="25"/>
       <c r="O151" s="25"/>
     </row>
@@ -8394,7 +8400,7 @@
       <c r="G152" s="25"/>
       <c r="K152" s="25"/>
       <c r="L152" s="25"/>
-      <c r="M152" s="25"/>
+      <c r="M152" s="32"/>
       <c r="N152" s="25"/>
       <c r="O152" s="25"/>
     </row>
@@ -8403,7 +8409,7 @@
       <c r="G153" s="25"/>
       <c r="K153" s="25"/>
       <c r="L153" s="25"/>
-      <c r="M153" s="25"/>
+      <c r="M153" s="32"/>
       <c r="N153" s="25"/>
       <c r="O153" s="25"/>
     </row>
@@ -8412,7 +8418,7 @@
       <c r="G154" s="25"/>
       <c r="K154" s="25"/>
       <c r="L154" s="25"/>
-      <c r="M154" s="25"/>
+      <c r="M154" s="32"/>
       <c r="N154" s="25"/>
       <c r="O154" s="25"/>
     </row>
@@ -8421,7 +8427,7 @@
       <c r="G155" s="25"/>
       <c r="K155" s="25"/>
       <c r="L155" s="25"/>
-      <c r="M155" s="25"/>
+      <c r="M155" s="32"/>
       <c r="N155" s="25"/>
       <c r="O155" s="25"/>
     </row>
@@ -8430,7 +8436,7 @@
       <c r="G156" s="25"/>
       <c r="K156" s="25"/>
       <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
+      <c r="M156" s="32"/>
       <c r="N156" s="25"/>
       <c r="O156" s="25"/>
     </row>
@@ -8439,7 +8445,7 @@
       <c r="G157" s="25"/>
       <c r="K157" s="25"/>
       <c r="L157" s="25"/>
-      <c r="M157" s="25"/>
+      <c r="M157" s="32"/>
       <c r="N157" s="25"/>
       <c r="O157" s="25"/>
     </row>
@@ -8448,7 +8454,7 @@
       <c r="G158" s="25"/>
       <c r="K158" s="25"/>
       <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
+      <c r="M158" s="32"/>
       <c r="N158" s="25"/>
       <c r="O158" s="25"/>
     </row>
@@ -8457,7 +8463,7 @@
       <c r="G159" s="25"/>
       <c r="K159" s="25"/>
       <c r="L159" s="25"/>
-      <c r="M159" s="25"/>
+      <c r="M159" s="32"/>
       <c r="N159" s="25"/>
       <c r="O159" s="25"/>
     </row>
@@ -8466,7 +8472,7 @@
       <c r="G160" s="25"/>
       <c r="K160" s="25"/>
       <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
+      <c r="M160" s="32"/>
       <c r="N160" s="25"/>
       <c r="O160" s="25"/>
     </row>
@@ -8475,7 +8481,7 @@
       <c r="G161" s="25"/>
       <c r="K161" s="25"/>
       <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
+      <c r="M161" s="32"/>
       <c r="N161" s="25"/>
       <c r="O161" s="25"/>
     </row>
@@ -8484,7 +8490,7 @@
       <c r="G162" s="25"/>
       <c r="K162" s="25"/>
       <c r="L162" s="25"/>
-      <c r="M162" s="25"/>
+      <c r="M162" s="32"/>
       <c r="N162" s="25"/>
       <c r="O162" s="25"/>
     </row>
@@ -8493,7 +8499,7 @@
       <c r="G163" s="25"/>
       <c r="K163" s="25"/>
       <c r="L163" s="25"/>
-      <c r="M163" s="25"/>
+      <c r="M163" s="32"/>
       <c r="N163" s="25"/>
       <c r="O163" s="25"/>
     </row>
@@ -8502,7 +8508,7 @@
       <c r="G164" s="25"/>
       <c r="K164" s="25"/>
       <c r="L164" s="25"/>
-      <c r="M164" s="25"/>
+      <c r="M164" s="32"/>
       <c r="N164" s="25"/>
       <c r="O164" s="25"/>
     </row>
@@ -8511,7 +8517,7 @@
       <c r="G165" s="25"/>
       <c r="K165" s="25"/>
       <c r="L165" s="25"/>
-      <c r="M165" s="25"/>
+      <c r="M165" s="32"/>
       <c r="N165" s="25"/>
       <c r="O165" s="25"/>
     </row>
@@ -8520,7 +8526,7 @@
       <c r="G166" s="25"/>
       <c r="K166" s="25"/>
       <c r="L166" s="25"/>
-      <c r="M166" s="25"/>
+      <c r="M166" s="32"/>
       <c r="N166" s="25"/>
       <c r="O166" s="25"/>
     </row>
@@ -8529,7 +8535,7 @@
       <c r="G167" s="25"/>
       <c r="K167" s="25"/>
       <c r="L167" s="25"/>
-      <c r="M167" s="25"/>
+      <c r="M167" s="32"/>
       <c r="N167" s="25"/>
       <c r="O167" s="25"/>
     </row>
@@ -8538,7 +8544,7 @@
       <c r="G168" s="25"/>
       <c r="K168" s="25"/>
       <c r="L168" s="25"/>
-      <c r="M168" s="25"/>
+      <c r="M168" s="32"/>
       <c r="N168" s="25"/>
       <c r="O168" s="25"/>
     </row>
@@ -8547,7 +8553,7 @@
       <c r="G169" s="25"/>
       <c r="K169" s="25"/>
       <c r="L169" s="25"/>
-      <c r="M169" s="25"/>
+      <c r="M169" s="32"/>
       <c r="N169" s="25"/>
       <c r="O169" s="25"/>
     </row>
@@ -8556,7 +8562,7 @@
       <c r="G170" s="25"/>
       <c r="K170" s="25"/>
       <c r="L170" s="25"/>
-      <c r="M170" s="25"/>
+      <c r="M170" s="32"/>
       <c r="N170" s="25"/>
       <c r="O170" s="25"/>
     </row>
@@ -8565,7 +8571,7 @@
       <c r="G171" s="25"/>
       <c r="K171" s="25"/>
       <c r="L171" s="25"/>
-      <c r="M171" s="25"/>
+      <c r="M171" s="32"/>
       <c r="N171" s="25"/>
       <c r="O171" s="25"/>
     </row>
@@ -8574,7 +8580,7 @@
       <c r="G172" s="25"/>
       <c r="K172" s="25"/>
       <c r="L172" s="25"/>
-      <c r="M172" s="25"/>
+      <c r="M172" s="32"/>
       <c r="N172" s="25"/>
       <c r="O172" s="25"/>
     </row>
@@ -8583,7 +8589,7 @@
       <c r="G173" s="25"/>
       <c r="K173" s="25"/>
       <c r="L173" s="25"/>
-      <c r="M173" s="25"/>
+      <c r="M173" s="32"/>
       <c r="N173" s="25"/>
       <c r="O173" s="25"/>
     </row>
@@ -8592,7 +8598,7 @@
       <c r="G174" s="25"/>
       <c r="K174" s="25"/>
       <c r="L174" s="25"/>
-      <c r="M174" s="25"/>
+      <c r="M174" s="32"/>
       <c r="N174" s="25"/>
       <c r="O174" s="25"/>
     </row>
@@ -8601,7 +8607,7 @@
       <c r="G175" s="25"/>
       <c r="K175" s="25"/>
       <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
+      <c r="M175" s="32"/>
       <c r="N175" s="25"/>
       <c r="O175" s="25"/>
     </row>
@@ -8610,7 +8616,7 @@
       <c r="G176" s="25"/>
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
-      <c r="M176" s="25"/>
+      <c r="M176" s="32"/>
       <c r="N176" s="25"/>
       <c r="O176" s="25"/>
     </row>
@@ -8619,7 +8625,7 @@
       <c r="G177" s="25"/>
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
-      <c r="M177" s="25"/>
+      <c r="M177" s="32"/>
       <c r="N177" s="25"/>
       <c r="O177" s="25"/>
     </row>
@@ -8628,7 +8634,7 @@
       <c r="G178" s="25"/>
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
+      <c r="M178" s="32"/>
       <c r="N178" s="25"/>
       <c r="O178" s="25"/>
     </row>
@@ -8637,7 +8643,7 @@
       <c r="G179" s="25"/>
       <c r="K179" s="25"/>
       <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
+      <c r="M179" s="32"/>
       <c r="N179" s="25"/>
       <c r="O179" s="25"/>
     </row>
@@ -8646,7 +8652,7 @@
       <c r="G180" s="25"/>
       <c r="K180" s="25"/>
       <c r="L180" s="25"/>
-      <c r="M180" s="25"/>
+      <c r="M180" s="32"/>
       <c r="N180" s="25"/>
       <c r="O180" s="25"/>
     </row>
@@ -8655,7 +8661,7 @@
       <c r="G181" s="25"/>
       <c r="K181" s="25"/>
       <c r="L181" s="25"/>
-      <c r="M181" s="25"/>
+      <c r="M181" s="32"/>
       <c r="N181" s="25"/>
       <c r="O181" s="25"/>
     </row>
@@ -8664,7 +8670,7 @@
       <c r="G182" s="25"/>
       <c r="K182" s="25"/>
       <c r="L182" s="25"/>
-      <c r="M182" s="25"/>
+      <c r="M182" s="32"/>
       <c r="N182" s="25"/>
       <c r="O182" s="25"/>
     </row>
@@ -8673,7 +8679,7 @@
       <c r="G183" s="25"/>
       <c r="K183" s="25"/>
       <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
+      <c r="M183" s="32"/>
       <c r="N183" s="25"/>
       <c r="O183" s="25"/>
     </row>
@@ -8682,7 +8688,7 @@
       <c r="G184" s="25"/>
       <c r="K184" s="25"/>
       <c r="L184" s="25"/>
-      <c r="M184" s="25"/>
+      <c r="M184" s="32"/>
       <c r="N184" s="25"/>
       <c r="O184" s="25"/>
     </row>
@@ -8691,7 +8697,7 @@
       <c r="G185" s="25"/>
       <c r="K185" s="25"/>
       <c r="L185" s="25"/>
-      <c r="M185" s="25"/>
+      <c r="M185" s="32"/>
       <c r="N185" s="25"/>
       <c r="O185" s="25"/>
     </row>
@@ -8700,7 +8706,7 @@
       <c r="G186" s="25"/>
       <c r="K186" s="25"/>
       <c r="L186" s="25"/>
-      <c r="M186" s="25"/>
+      <c r="M186" s="32"/>
       <c r="N186" s="25"/>
       <c r="O186" s="25"/>
     </row>
@@ -8709,7 +8715,7 @@
       <c r="G187" s="25"/>
       <c r="K187" s="25"/>
       <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
+      <c r="M187" s="32"/>
       <c r="N187" s="25"/>
       <c r="O187" s="25"/>
     </row>
@@ -8718,7 +8724,7 @@
       <c r="G188" s="25"/>
       <c r="K188" s="25"/>
       <c r="L188" s="25"/>
-      <c r="M188" s="25"/>
+      <c r="M188" s="32"/>
       <c r="N188" s="25"/>
       <c r="O188" s="25"/>
     </row>
@@ -8727,7 +8733,7 @@
       <c r="G189" s="25"/>
       <c r="K189" s="25"/>
       <c r="L189" s="25"/>
-      <c r="M189" s="25"/>
+      <c r="M189" s="32"/>
       <c r="N189" s="25"/>
       <c r="O189" s="25"/>
     </row>
@@ -8736,7 +8742,7 @@
       <c r="G190" s="25"/>
       <c r="K190" s="25"/>
       <c r="L190" s="25"/>
-      <c r="M190" s="25"/>
+      <c r="M190" s="32"/>
       <c r="N190" s="25"/>
       <c r="O190" s="25"/>
     </row>
@@ -8745,7 +8751,7 @@
       <c r="G191" s="25"/>
       <c r="K191" s="25"/>
       <c r="L191" s="25"/>
-      <c r="M191" s="25"/>
+      <c r="M191" s="32"/>
       <c r="N191" s="25"/>
       <c r="O191" s="25"/>
     </row>
@@ -8754,7 +8760,7 @@
       <c r="G192" s="25"/>
       <c r="K192" s="25"/>
       <c r="L192" s="25"/>
-      <c r="M192" s="25"/>
+      <c r="M192" s="32"/>
       <c r="N192" s="25"/>
       <c r="O192" s="25"/>
     </row>
@@ -8763,7 +8769,7 @@
       <c r="G193" s="25"/>
       <c r="K193" s="25"/>
       <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
+      <c r="M193" s="32"/>
       <c r="N193" s="25"/>
       <c r="O193" s="25"/>
     </row>
@@ -8772,7 +8778,7 @@
       <c r="G194" s="25"/>
       <c r="K194" s="25"/>
       <c r="L194" s="25"/>
-      <c r="M194" s="25"/>
+      <c r="M194" s="32"/>
       <c r="N194" s="25"/>
       <c r="O194" s="25"/>
     </row>
@@ -8781,7 +8787,7 @@
       <c r="G195" s="25"/>
       <c r="K195" s="25"/>
       <c r="L195" s="25"/>
-      <c r="M195" s="25"/>
+      <c r="M195" s="32"/>
       <c r="N195" s="25"/>
       <c r="O195" s="25"/>
     </row>
@@ -8790,7 +8796,7 @@
       <c r="G196" s="25"/>
       <c r="K196" s="25"/>
       <c r="L196" s="25"/>
-      <c r="M196" s="25"/>
+      <c r="M196" s="32"/>
       <c r="N196" s="25"/>
       <c r="O196" s="25"/>
     </row>
@@ -8799,7 +8805,7 @@
       <c r="G197" s="25"/>
       <c r="K197" s="25"/>
       <c r="L197" s="25"/>
-      <c r="M197" s="25"/>
+      <c r="M197" s="32"/>
       <c r="N197" s="25"/>
       <c r="O197" s="25"/>
     </row>
@@ -8808,7 +8814,7 @@
       <c r="G198" s="25"/>
       <c r="K198" s="25"/>
       <c r="L198" s="25"/>
-      <c r="M198" s="25"/>
+      <c r="M198" s="32"/>
       <c r="N198" s="25"/>
       <c r="O198" s="25"/>
     </row>
@@ -8817,7 +8823,7 @@
       <c r="G199" s="25"/>
       <c r="K199" s="25"/>
       <c r="L199" s="25"/>
-      <c r="M199" s="25"/>
+      <c r="M199" s="32"/>
       <c r="N199" s="25"/>
       <c r="O199" s="25"/>
     </row>
@@ -8826,7 +8832,7 @@
       <c r="G200" s="25"/>
       <c r="K200" s="25"/>
       <c r="L200" s="25"/>
-      <c r="M200" s="25"/>
+      <c r="M200" s="32"/>
       <c r="N200" s="25"/>
       <c r="O200" s="25"/>
     </row>
@@ -8835,7 +8841,7 @@
       <c r="G201" s="25"/>
       <c r="K201" s="25"/>
       <c r="L201" s="25"/>
-      <c r="M201" s="25"/>
+      <c r="M201" s="32"/>
       <c r="N201" s="25"/>
       <c r="O201" s="25"/>
     </row>
@@ -8844,7 +8850,7 @@
       <c r="G202" s="25"/>
       <c r="K202" s="25"/>
       <c r="L202" s="25"/>
-      <c r="M202" s="25"/>
+      <c r="M202" s="32"/>
       <c r="N202" s="25"/>
       <c r="O202" s="25"/>
     </row>
@@ -8853,7 +8859,7 @@
       <c r="G203" s="25"/>
       <c r="K203" s="25"/>
       <c r="L203" s="25"/>
-      <c r="M203" s="25"/>
+      <c r="M203" s="32"/>
       <c r="N203" s="25"/>
       <c r="O203" s="25"/>
     </row>
@@ -8862,7 +8868,7 @@
       <c r="G204" s="25"/>
       <c r="K204" s="25"/>
       <c r="L204" s="25"/>
-      <c r="M204" s="25"/>
+      <c r="M204" s="32"/>
       <c r="N204" s="25"/>
       <c r="O204" s="25"/>
     </row>
@@ -8871,7 +8877,7 @@
       <c r="G205" s="25"/>
       <c r="K205" s="25"/>
       <c r="L205" s="25"/>
-      <c r="M205" s="25"/>
+      <c r="M205" s="32"/>
       <c r="N205" s="25"/>
       <c r="O205" s="25"/>
     </row>
@@ -8880,7 +8886,7 @@
       <c r="G206" s="25"/>
       <c r="K206" s="25"/>
       <c r="L206" s="25"/>
-      <c r="M206" s="25"/>
+      <c r="M206" s="32"/>
       <c r="N206" s="25"/>
       <c r="O206" s="25"/>
     </row>
@@ -8889,7 +8895,7 @@
       <c r="G207" s="25"/>
       <c r="K207" s="25"/>
       <c r="L207" s="25"/>
-      <c r="M207" s="25"/>
+      <c r="M207" s="32"/>
       <c r="N207" s="25"/>
       <c r="O207" s="25"/>
     </row>
@@ -8898,7 +8904,7 @@
       <c r="G208" s="25"/>
       <c r="K208" s="25"/>
       <c r="L208" s="25"/>
-      <c r="M208" s="25"/>
+      <c r="M208" s="32"/>
       <c r="N208" s="25"/>
       <c r="O208" s="25"/>
     </row>
@@ -8907,7 +8913,7 @@
       <c r="G209" s="25"/>
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
-      <c r="M209" s="25"/>
+      <c r="M209" s="32"/>
       <c r="N209" s="25"/>
       <c r="O209" s="25"/>
     </row>
@@ -8916,7 +8922,7 @@
       <c r="G210" s="25"/>
       <c r="K210" s="25"/>
       <c r="L210" s="25"/>
-      <c r="M210" s="25"/>
+      <c r="M210" s="32"/>
       <c r="N210" s="25"/>
       <c r="O210" s="25"/>
     </row>
@@ -8925,7 +8931,7 @@
       <c r="G211" s="25"/>
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
-      <c r="M211" s="25"/>
+      <c r="M211" s="32"/>
       <c r="N211" s="25"/>
       <c r="O211" s="25"/>
     </row>
@@ -8934,7 +8940,7 @@
       <c r="G212" s="25"/>
       <c r="K212" s="25"/>
       <c r="L212" s="25"/>
-      <c r="M212" s="25"/>
+      <c r="M212" s="32"/>
       <c r="N212" s="25"/>
       <c r="O212" s="25"/>
     </row>
@@ -8943,7 +8949,7 @@
       <c r="G213" s="25"/>
       <c r="K213" s="25"/>
       <c r="L213" s="25"/>
-      <c r="M213" s="25"/>
+      <c r="M213" s="32"/>
       <c r="N213" s="25"/>
       <c r="O213" s="25"/>
     </row>
@@ -8952,7 +8958,7 @@
       <c r="G214" s="25"/>
       <c r="K214" s="25"/>
       <c r="L214" s="25"/>
-      <c r="M214" s="25"/>
+      <c r="M214" s="32"/>
       <c r="N214" s="25"/>
       <c r="O214" s="25"/>
     </row>
@@ -8961,7 +8967,7 @@
       <c r="G215" s="25"/>
       <c r="K215" s="25"/>
       <c r="L215" s="25"/>
-      <c r="M215" s="25"/>
+      <c r="M215" s="32"/>
       <c r="N215" s="25"/>
       <c r="O215" s="25"/>
     </row>
@@ -8970,7 +8976,7 @@
       <c r="G216" s="25"/>
       <c r="K216" s="25"/>
       <c r="L216" s="25"/>
-      <c r="M216" s="25"/>
+      <c r="M216" s="32"/>
       <c r="N216" s="25"/>
       <c r="O216" s="25"/>
     </row>
@@ -8979,7 +8985,7 @@
       <c r="G217" s="25"/>
       <c r="K217" s="25"/>
       <c r="L217" s="25"/>
-      <c r="M217" s="25"/>
+      <c r="M217" s="32"/>
       <c r="N217" s="25"/>
       <c r="O217" s="25"/>
     </row>
@@ -8988,7 +8994,7 @@
       <c r="G218" s="25"/>
       <c r="K218" s="25"/>
       <c r="L218" s="25"/>
-      <c r="M218" s="25"/>
+      <c r="M218" s="32"/>
       <c r="N218" s="25"/>
       <c r="O218" s="25"/>
     </row>
@@ -8997,7 +9003,7 @@
       <c r="G219" s="25"/>
       <c r="K219" s="25"/>
       <c r="L219" s="25"/>
-      <c r="M219" s="25"/>
+      <c r="M219" s="32"/>
       <c r="N219" s="25"/>
       <c r="O219" s="25"/>
     </row>
@@ -9006,7 +9012,7 @@
       <c r="G220" s="25"/>
       <c r="K220" s="25"/>
       <c r="L220" s="25"/>
-      <c r="M220" s="25"/>
+      <c r="M220" s="32"/>
       <c r="N220" s="25"/>
       <c r="O220" s="25"/>
     </row>
@@ -9015,7 +9021,7 @@
       <c r="G221" s="25"/>
       <c r="K221" s="25"/>
       <c r="L221" s="25"/>
-      <c r="M221" s="25"/>
+      <c r="M221" s="32"/>
       <c r="N221" s="25"/>
       <c r="O221" s="25"/>
     </row>
@@ -9024,7 +9030,7 @@
       <c r="G222" s="25"/>
       <c r="K222" s="25"/>
       <c r="L222" s="25"/>
-      <c r="M222" s="25"/>
+      <c r="M222" s="32"/>
       <c r="N222" s="25"/>
       <c r="O222" s="25"/>
     </row>
@@ -9033,7 +9039,7 @@
       <c r="G223" s="25"/>
       <c r="K223" s="25"/>
       <c r="L223" s="25"/>
-      <c r="M223" s="25"/>
+      <c r="M223" s="32"/>
       <c r="N223" s="25"/>
       <c r="O223" s="25"/>
     </row>
@@ -9042,7 +9048,7 @@
       <c r="G224" s="25"/>
       <c r="K224" s="25"/>
       <c r="L224" s="25"/>
-      <c r="M224" s="25"/>
+      <c r="M224" s="32"/>
       <c r="N224" s="25"/>
       <c r="O224" s="25"/>
     </row>
@@ -9051,7 +9057,7 @@
       <c r="G225" s="25"/>
       <c r="K225" s="25"/>
       <c r="L225" s="25"/>
-      <c r="M225" s="25"/>
+      <c r="M225" s="32"/>
       <c r="N225" s="25"/>
       <c r="O225" s="25"/>
     </row>
@@ -9060,7 +9066,7 @@
       <c r="G226" s="25"/>
       <c r="K226" s="25"/>
       <c r="L226" s="25"/>
-      <c r="M226" s="25"/>
+      <c r="M226" s="32"/>
       <c r="N226" s="25"/>
       <c r="O226" s="25"/>
     </row>
@@ -9069,7 +9075,7 @@
       <c r="G227" s="25"/>
       <c r="K227" s="25"/>
       <c r="L227" s="25"/>
-      <c r="M227" s="25"/>
+      <c r="M227" s="32"/>
       <c r="N227" s="25"/>
       <c r="O227" s="25"/>
     </row>
@@ -9078,7 +9084,7 @@
       <c r="G228" s="25"/>
       <c r="K228" s="25"/>
       <c r="L228" s="25"/>
-      <c r="M228" s="25"/>
+      <c r="M228" s="32"/>
       <c r="N228" s="25"/>
       <c r="O228" s="25"/>
     </row>
@@ -9087,7 +9093,7 @@
       <c r="G229" s="25"/>
       <c r="K229" s="25"/>
       <c r="L229" s="25"/>
-      <c r="M229" s="25"/>
+      <c r="M229" s="32"/>
       <c r="N229" s="25"/>
       <c r="O229" s="25"/>
     </row>
@@ -9096,7 +9102,7 @@
       <c r="G230" s="25"/>
       <c r="K230" s="25"/>
       <c r="L230" s="25"/>
-      <c r="M230" s="25"/>
+      <c r="M230" s="32"/>
       <c r="N230" s="25"/>
       <c r="O230" s="25"/>
     </row>
@@ -9105,7 +9111,7 @@
       <c r="G231" s="25"/>
       <c r="K231" s="25"/>
       <c r="L231" s="25"/>
-      <c r="M231" s="25"/>
+      <c r="M231" s="32"/>
       <c r="N231" s="25"/>
       <c r="O231" s="25"/>
     </row>
@@ -9114,7 +9120,7 @@
       <c r="G232" s="25"/>
       <c r="K232" s="25"/>
       <c r="L232" s="25"/>
-      <c r="M232" s="25"/>
+      <c r="M232" s="32"/>
       <c r="N232" s="25"/>
       <c r="O232" s="25"/>
     </row>
@@ -9123,7 +9129,7 @@
       <c r="G233" s="25"/>
       <c r="K233" s="25"/>
       <c r="L233" s="25"/>
-      <c r="M233" s="25"/>
+      <c r="M233" s="32"/>
       <c r="N233" s="25"/>
       <c r="O233" s="25"/>
     </row>
@@ -9132,7 +9138,7 @@
       <c r="G234" s="25"/>
       <c r="K234" s="25"/>
       <c r="L234" s="25"/>
-      <c r="M234" s="25"/>
+      <c r="M234" s="32"/>
       <c r="N234" s="25"/>
       <c r="O234" s="25"/>
     </row>
@@ -9141,7 +9147,7 @@
       <c r="G235" s="25"/>
       <c r="K235" s="25"/>
       <c r="L235" s="25"/>
-      <c r="M235" s="25"/>
+      <c r="M235" s="32"/>
       <c r="N235" s="25"/>
       <c r="O235" s="25"/>
     </row>
@@ -9150,7 +9156,7 @@
       <c r="G236" s="25"/>
       <c r="K236" s="25"/>
       <c r="L236" s="25"/>
-      <c r="M236" s="25"/>
+      <c r="M236" s="32"/>
       <c r="N236" s="25"/>
       <c r="O236" s="25"/>
     </row>
@@ -9159,7 +9165,7 @@
       <c r="G237" s="25"/>
       <c r="K237" s="25"/>
       <c r="L237" s="25"/>
-      <c r="M237" s="25"/>
+      <c r="M237" s="32"/>
       <c r="N237" s="25"/>
       <c r="O237" s="25"/>
     </row>
@@ -9168,7 +9174,7 @@
       <c r="G238" s="25"/>
       <c r="K238" s="25"/>
       <c r="L238" s="25"/>
-      <c r="M238" s="25"/>
+      <c r="M238" s="32"/>
       <c r="N238" s="25"/>
       <c r="O238" s="25"/>
     </row>
@@ -9177,7 +9183,7 @@
       <c r="G239" s="25"/>
       <c r="K239" s="25"/>
       <c r="L239" s="25"/>
-      <c r="M239" s="25"/>
+      <c r="M239" s="32"/>
       <c r="N239" s="25"/>
       <c r="O239" s="25"/>
     </row>
@@ -9186,7 +9192,7 @@
       <c r="G240" s="25"/>
       <c r="K240" s="25"/>
       <c r="L240" s="25"/>
-      <c r="M240" s="25"/>
+      <c r="M240" s="32"/>
       <c r="N240" s="25"/>
       <c r="O240" s="25"/>
     </row>
@@ -9195,7 +9201,7 @@
       <c r="G241" s="25"/>
       <c r="K241" s="25"/>
       <c r="L241" s="25"/>
-      <c r="M241" s="25"/>
+      <c r="M241" s="32"/>
       <c r="N241" s="25"/>
       <c r="O241" s="25"/>
     </row>
@@ -9204,7 +9210,7 @@
       <c r="G242" s="25"/>
       <c r="K242" s="25"/>
       <c r="L242" s="25"/>
-      <c r="M242" s="25"/>
+      <c r="M242" s="32"/>
       <c r="N242" s="25"/>
       <c r="O242" s="25"/>
     </row>
@@ -9213,7 +9219,7 @@
       <c r="G243" s="25"/>
       <c r="K243" s="25"/>
       <c r="L243" s="25"/>
-      <c r="M243" s="25"/>
+      <c r="M243" s="32"/>
       <c r="N243" s="25"/>
       <c r="O243" s="25"/>
     </row>
@@ -9222,7 +9228,7 @@
       <c r="G244" s="25"/>
       <c r="K244" s="25"/>
       <c r="L244" s="25"/>
-      <c r="M244" s="25"/>
+      <c r="M244" s="32"/>
       <c r="N244" s="25"/>
       <c r="O244" s="25"/>
     </row>
@@ -9231,7 +9237,7 @@
       <c r="G245" s="25"/>
       <c r="K245" s="25"/>
       <c r="L245" s="25"/>
-      <c r="M245" s="25"/>
+      <c r="M245" s="32"/>
       <c r="N245" s="25"/>
       <c r="O245" s="25"/>
     </row>
@@ -9240,7 +9246,7 @@
       <c r="G246" s="25"/>
       <c r="K246" s="25"/>
       <c r="L246" s="25"/>
-      <c r="M246" s="25"/>
+      <c r="M246" s="32"/>
       <c r="N246" s="25"/>
       <c r="O246" s="25"/>
     </row>
@@ -9249,7 +9255,7 @@
       <c r="G247" s="25"/>
       <c r="K247" s="25"/>
       <c r="L247" s="25"/>
-      <c r="M247" s="25"/>
+      <c r="M247" s="32"/>
       <c r="N247" s="25"/>
       <c r="O247" s="25"/>
     </row>
@@ -9258,7 +9264,7 @@
       <c r="G248" s="25"/>
       <c r="K248" s="25"/>
       <c r="L248" s="25"/>
-      <c r="M248" s="25"/>
+      <c r="M248" s="32"/>
       <c r="N248" s="25"/>
       <c r="O248" s="25"/>
     </row>
@@ -9267,7 +9273,7 @@
       <c r="G249" s="25"/>
       <c r="K249" s="25"/>
       <c r="L249" s="25"/>
-      <c r="M249" s="25"/>
+      <c r="M249" s="32"/>
       <c r="N249" s="25"/>
       <c r="O249" s="25"/>
     </row>
@@ -9276,7 +9282,7 @@
       <c r="G250" s="25"/>
       <c r="K250" s="25"/>
       <c r="L250" s="25"/>
-      <c r="M250" s="25"/>
+      <c r="M250" s="32"/>
       <c r="N250" s="25"/>
       <c r="O250" s="25"/>
     </row>
@@ -9285,7 +9291,7 @@
       <c r="G251" s="25"/>
       <c r="K251" s="25"/>
       <c r="L251" s="25"/>
-      <c r="M251" s="25"/>
+      <c r="M251" s="32"/>
       <c r="N251" s="25"/>
       <c r="O251" s="25"/>
     </row>
@@ -9294,7 +9300,7 @@
       <c r="G252" s="25"/>
       <c r="K252" s="25"/>
       <c r="L252" s="25"/>
-      <c r="M252" s="25"/>
+      <c r="M252" s="32"/>
       <c r="N252" s="25"/>
       <c r="O252" s="25"/>
     </row>
@@ -9303,7 +9309,7 @@
       <c r="G253" s="25"/>
       <c r="K253" s="25"/>
       <c r="L253" s="25"/>
-      <c r="M253" s="25"/>
+      <c r="M253" s="32"/>
       <c r="N253" s="25"/>
       <c r="O253" s="25"/>
     </row>
@@ -9312,7 +9318,7 @@
       <c r="G254" s="25"/>
       <c r="K254" s="25"/>
       <c r="L254" s="25"/>
-      <c r="M254" s="25"/>
+      <c r="M254" s="32"/>
       <c r="N254" s="25"/>
       <c r="O254" s="25"/>
     </row>
@@ -9321,7 +9327,7 @@
       <c r="G255" s="25"/>
       <c r="K255" s="25"/>
       <c r="L255" s="25"/>
-      <c r="M255" s="25"/>
+      <c r="M255" s="32"/>
       <c r="N255" s="25"/>
       <c r="O255" s="25"/>
     </row>
@@ -9330,7 +9336,7 @@
       <c r="G256" s="25"/>
       <c r="K256" s="25"/>
       <c r="L256" s="25"/>
-      <c r="M256" s="25"/>
+      <c r="M256" s="32"/>
       <c r="N256" s="25"/>
       <c r="O256" s="25"/>
     </row>
@@ -9339,7 +9345,7 @@
       <c r="G257" s="25"/>
       <c r="K257" s="25"/>
       <c r="L257" s="25"/>
-      <c r="M257" s="25"/>
+      <c r="M257" s="32"/>
       <c r="N257" s="25"/>
       <c r="O257" s="25"/>
     </row>
@@ -9348,7 +9354,7 @@
       <c r="G258" s="25"/>
       <c r="K258" s="25"/>
       <c r="L258" s="25"/>
-      <c r="M258" s="25"/>
+      <c r="M258" s="32"/>
       <c r="N258" s="25"/>
       <c r="O258" s="25"/>
     </row>
@@ -9357,7 +9363,7 @@
       <c r="G259" s="25"/>
       <c r="K259" s="25"/>
       <c r="L259" s="25"/>
-      <c r="M259" s="25"/>
+      <c r="M259" s="32"/>
       <c r="N259" s="25"/>
       <c r="O259" s="25"/>
     </row>
@@ -9366,7 +9372,7 @@
       <c r="G260" s="25"/>
       <c r="K260" s="25"/>
       <c r="L260" s="25"/>
-      <c r="M260" s="25"/>
+      <c r="M260" s="32"/>
       <c r="N260" s="25"/>
       <c r="O260" s="25"/>
     </row>
@@ -9375,7 +9381,7 @@
       <c r="G261" s="25"/>
       <c r="K261" s="25"/>
       <c r="L261" s="25"/>
-      <c r="M261" s="25"/>
+      <c r="M261" s="32"/>
       <c r="N261" s="25"/>
       <c r="O261" s="25"/>
     </row>
@@ -9384,7 +9390,7 @@
       <c r="G262" s="25"/>
       <c r="K262" s="25"/>
       <c r="L262" s="25"/>
-      <c r="M262" s="25"/>
+      <c r="M262" s="32"/>
       <c r="N262" s="25"/>
       <c r="O262" s="25"/>
     </row>
@@ -9393,7 +9399,7 @@
       <c r="G263" s="25"/>
       <c r="K263" s="25"/>
       <c r="L263" s="25"/>
-      <c r="M263" s="25"/>
+      <c r="M263" s="32"/>
       <c r="N263" s="25"/>
       <c r="O263" s="25"/>
     </row>
@@ -9402,7 +9408,7 @@
       <c r="G264" s="25"/>
       <c r="K264" s="25"/>
       <c r="L264" s="25"/>
-      <c r="M264" s="25"/>
+      <c r="M264" s="32"/>
       <c r="N264" s="25"/>
       <c r="O264" s="25"/>
     </row>
@@ -9411,7 +9417,7 @@
       <c r="G265" s="25"/>
       <c r="K265" s="25"/>
       <c r="L265" s="25"/>
-      <c r="M265" s="25"/>
+      <c r="M265" s="32"/>
       <c r="N265" s="25"/>
       <c r="O265" s="25"/>
     </row>
@@ -9420,7 +9426,7 @@
       <c r="G266" s="25"/>
       <c r="K266" s="25"/>
       <c r="L266" s="25"/>
-      <c r="M266" s="25"/>
+      <c r="M266" s="32"/>
       <c r="N266" s="25"/>
       <c r="O266" s="25"/>
     </row>
@@ -9429,7 +9435,7 @@
       <c r="G267" s="25"/>
       <c r="K267" s="25"/>
       <c r="L267" s="25"/>
-      <c r="M267" s="25"/>
+      <c r="M267" s="32"/>
       <c r="N267" s="25"/>
       <c r="O267" s="25"/>
     </row>
@@ -9438,7 +9444,7 @@
       <c r="G268" s="25"/>
       <c r="K268" s="25"/>
       <c r="L268" s="25"/>
-      <c r="M268" s="25"/>
+      <c r="M268" s="32"/>
       <c r="N268" s="25"/>
       <c r="O268" s="25"/>
     </row>
@@ -9447,7 +9453,7 @@
       <c r="G269" s="25"/>
       <c r="K269" s="25"/>
       <c r="L269" s="25"/>
-      <c r="M269" s="25"/>
+      <c r="M269" s="32"/>
       <c r="N269" s="25"/>
       <c r="O269" s="25"/>
     </row>
@@ -9456,7 +9462,7 @@
       <c r="G270" s="25"/>
       <c r="K270" s="25"/>
       <c r="L270" s="25"/>
-      <c r="M270" s="25"/>
+      <c r="M270" s="32"/>
       <c r="N270" s="25"/>
       <c r="O270" s="25"/>
     </row>
@@ -9465,7 +9471,7 @@
       <c r="G271" s="25"/>
       <c r="K271" s="25"/>
       <c r="L271" s="25"/>
-      <c r="M271" s="25"/>
+      <c r="M271" s="32"/>
       <c r="N271" s="25"/>
       <c r="O271" s="25"/>
     </row>
@@ -9474,7 +9480,7 @@
       <c r="G272" s="25"/>
       <c r="K272" s="25"/>
       <c r="L272" s="25"/>
-      <c r="M272" s="25"/>
+      <c r="M272" s="32"/>
       <c r="N272" s="25"/>
       <c r="O272" s="25"/>
     </row>
@@ -9483,7 +9489,7 @@
       <c r="G273" s="25"/>
       <c r="K273" s="25"/>
       <c r="L273" s="25"/>
-      <c r="M273" s="25"/>
+      <c r="M273" s="32"/>
       <c r="N273" s="25"/>
       <c r="O273" s="25"/>
     </row>
@@ -9492,7 +9498,7 @@
       <c r="G274" s="25"/>
       <c r="K274" s="25"/>
       <c r="L274" s="25"/>
-      <c r="M274" s="25"/>
+      <c r="M274" s="32"/>
       <c r="N274" s="25"/>
       <c r="O274" s="25"/>
     </row>
@@ -9501,7 +9507,7 @@
       <c r="G275" s="25"/>
       <c r="K275" s="25"/>
       <c r="L275" s="25"/>
-      <c r="M275" s="25"/>
+      <c r="M275" s="32"/>
       <c r="N275" s="25"/>
       <c r="O275" s="25"/>
     </row>
@@ -9510,7 +9516,7 @@
       <c r="G276" s="25"/>
       <c r="K276" s="25"/>
       <c r="L276" s="25"/>
-      <c r="M276" s="25"/>
+      <c r="M276" s="32"/>
       <c r="N276" s="25"/>
       <c r="O276" s="25"/>
     </row>
@@ -9530,12 +9536,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9758,6 +9758,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
@@ -9767,23 +9773,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9800,4 +9789,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Covid-19 Resource Planning Data Input Template SEIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SEIR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D20505-0BFF-483C-8CC3-7FA77C5458DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4429F3-1CC1-4A2E-96BC-5C106AFB0DAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>District</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Doubling_time_in_days</t>
-  </si>
-  <si>
-    <t>Infectious_Days</t>
   </si>
   <si>
     <t>Fatality_Rate</t>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>Critical_Cases_Rate</t>
-  </si>
-  <si>
-    <t>Percentage_Suspected_Positive</t>
   </si>
   <si>
     <t>Percentage_Hospital_Quarantined</t>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Sample Value</t>
-  </si>
-  <si>
-    <t>Percentage of deaths from all people infected</t>
   </si>
   <si>
     <t>Percentage of suspected positive people that need to be quarantined in hospitals</t>
@@ -127,13 +118,7 @@
     <t>Number of days required for number of infected individuals to double</t>
   </si>
   <si>
-    <t>The number of days in which an individual can infect others (regardless of whether the infected person symptomatic or asymptomatic)</t>
-  </si>
-  <si>
     <t>Percentage of critical cases in the total infected cases</t>
-  </si>
-  <si>
-    <t>Percentage of people suspected positive with COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">The tab "SIR Model Inputs" is to be updated by the user. </t>
@@ -148,16 +133,7 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Number of patients currently deceased due to COVID-19 in the administrative unit</t>
-  </si>
-  <si>
-    <t>Number of patients currently recovered from COVID-19 in the administrative unit</t>
-  </si>
-  <si>
     <t>Currently_infected_COVID_19_Patients</t>
-  </si>
-  <si>
-    <t>Number of patients currently infected with COVID-19 in the administrative unit</t>
   </si>
   <si>
     <t>Incubation_Period_in_days</t>
@@ -170,6 +146,30 @@
   </si>
   <si>
     <t>Multiple_Suspected_Positive</t>
+  </si>
+  <si>
+    <t>Number of patients currently infected with COVID-19 in the administrative unit (Active cases)</t>
+  </si>
+  <si>
+    <t>Number of patients currently recovered from COVID-19 in the administrative unit (Recovered cases)</t>
+  </si>
+  <si>
+    <t>Number of patients currently deceased due to COVID-19 in the administrative unit (Deceased cases)</t>
+  </si>
+  <si>
+    <t>The average number of days required for an individual to recover and can also infect others (regardless of whether the infected person symptomatic or asymptomatic)</t>
+  </si>
+  <si>
+    <t>Percentage of deaths from all confirmed cases</t>
+  </si>
+  <si>
+    <t>Mutiple of active cases who are suspected positive</t>
+  </si>
+  <si>
+    <t>Average number of days for an individual to die due to COVID-19 from the beginning of the infection</t>
+  </si>
+  <si>
+    <t>Average number of days between exposure to virus(becoming infected) and symptom onset</t>
   </si>
 </sst>
 </file>
@@ -355,9 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,18 +363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +391,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +593,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6629,8 +6631,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6642,280 +6644,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="C26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="D31" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="E31" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="20">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="22">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="E32" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6931,2594 +6961,2594 @@
   </sheetPr>
   <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="J1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="19">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="20">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20">
+        <v>10</v>
+      </c>
+      <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="F2" s="20">
         <v>4</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="28">
-        <v>100000</v>
-      </c>
-      <c r="C2" s="29">
-        <v>50</v>
-      </c>
-      <c r="D2" s="29">
-        <v>10</v>
-      </c>
-      <c r="E2" s="29">
+      <c r="G2" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="20">
+        <v>14</v>
+      </c>
+      <c r="I2" s="20">
+        <v>20</v>
+      </c>
+      <c r="J2" s="20">
+        <v>3</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="M2" s="22">
         <v>2</v>
       </c>
-      <c r="F2" s="29">
-        <v>4</v>
-      </c>
-      <c r="G2" s="30">
+      <c r="N2" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="21">
         <v>0.3</v>
       </c>
-      <c r="H2" s="29">
-        <v>14</v>
-      </c>
-      <c r="I2" s="29">
-        <v>20</v>
-      </c>
-      <c r="J2" s="29">
-        <v>3</v>
-      </c>
-      <c r="K2" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="L2" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="M2" s="31">
-        <v>2</v>
-      </c>
-      <c r="N2" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="O2" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="P2" s="29">
+      <c r="P2" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="B4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="B5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="B6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="B7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="B8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="B9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="B10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="B11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="B12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="B13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="B14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="B15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="B16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="B17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="B18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="B19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="B20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="B21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="B23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="B24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="B25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="B27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="B28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
+      <c r="B29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="B30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+      <c r="B31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
+      <c r="B32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
+      <c r="B33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
+      <c r="B35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
+      <c r="B36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
+      <c r="B37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
+      <c r="B39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
+      <c r="B40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
+      <c r="B41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
+      <c r="B43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
+      <c r="B44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
+      <c r="B45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
+      <c r="B47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+      <c r="B48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
+      <c r="B49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+      <c r="B51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
+      <c r="B52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
+      <c r="B53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
+      <c r="B54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
+      <c r="B55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="G56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
+      <c r="B56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
+      <c r="B57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="G58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
+      <c r="B58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
+      <c r="B59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
+      <c r="B60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="G61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
+      <c r="B61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
+      <c r="B62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="G63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
+      <c r="B63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="G64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
+      <c r="B64" s="15"/>
+      <c r="G64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
+      <c r="B65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B66" s="24"/>
-      <c r="G66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
+      <c r="B66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
+      <c r="B67" s="15"/>
+      <c r="G67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="24"/>
-      <c r="G68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
+      <c r="B68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="24"/>
-      <c r="G69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
+      <c r="B69" s="15"/>
+      <c r="G69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B70" s="24"/>
-      <c r="G70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
+      <c r="B70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B71" s="24"/>
-      <c r="G71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
+      <c r="B71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
+      <c r="B72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
+      <c r="B73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
+      <c r="B74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B75" s="24"/>
-      <c r="G75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
+      <c r="B75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B76" s="24"/>
-      <c r="G76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
+      <c r="B76" s="15"/>
+      <c r="G76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
+      <c r="B77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
+      <c r="B78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="24"/>
-      <c r="G79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
+      <c r="B79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="24"/>
-      <c r="G80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
+      <c r="B80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
+      <c r="B81" s="15"/>
+      <c r="G81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
-      <c r="G82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
+      <c r="B82" s="15"/>
+      <c r="G82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="G83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
+      <c r="B83" s="15"/>
+      <c r="G83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
-      <c r="G84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
+      <c r="B84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
-      <c r="G85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
+      <c r="B85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="24"/>
-      <c r="G86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
+      <c r="B86" s="15"/>
+      <c r="G86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
-      <c r="G87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
+      <c r="B87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
+      <c r="B88" s="15"/>
+      <c r="G88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
+      <c r="B89" s="15"/>
+      <c r="G89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
-      <c r="G90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
+      <c r="B90" s="15"/>
+      <c r="G90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
-      <c r="G91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
+      <c r="B91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
-      <c r="G92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
+      <c r="B92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
-      <c r="G93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
+      <c r="B93" s="15"/>
+      <c r="G93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="24"/>
-      <c r="G94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="25"/>
+      <c r="B94" s="15"/>
+      <c r="G94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
-      <c r="G95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="25"/>
+      <c r="B95" s="15"/>
+      <c r="G95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="24"/>
-      <c r="G96" s="25"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="25"/>
+      <c r="B96" s="15"/>
+      <c r="G96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B97" s="24"/>
-      <c r="G97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="25"/>
+      <c r="B97" s="15"/>
+      <c r="G97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
-      <c r="G98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="25"/>
+      <c r="B98" s="15"/>
+      <c r="G98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B99" s="24"/>
-      <c r="G99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="25"/>
+      <c r="B99" s="15"/>
+      <c r="G99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B100" s="24"/>
-      <c r="G100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="25"/>
+      <c r="B100" s="15"/>
+      <c r="G100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B101" s="24"/>
-      <c r="G101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="25"/>
-      <c r="O101" s="25"/>
+      <c r="B101" s="15"/>
+      <c r="G101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B102" s="24"/>
-      <c r="G102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
+      <c r="B102" s="15"/>
+      <c r="G102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B103" s="24"/>
-      <c r="G103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="25"/>
+      <c r="B103" s="15"/>
+      <c r="G103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B104" s="24"/>
-      <c r="G104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
+      <c r="B104" s="15"/>
+      <c r="G104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B105" s="24"/>
-      <c r="G105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="25"/>
-      <c r="O105" s="25"/>
+      <c r="B105" s="15"/>
+      <c r="G105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B106" s="24"/>
-      <c r="G106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="25"/>
-      <c r="O106" s="25"/>
+      <c r="B106" s="15"/>
+      <c r="G106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B107" s="24"/>
-      <c r="G107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="25"/>
+      <c r="B107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B108" s="24"/>
-      <c r="G108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="25"/>
+      <c r="B108" s="15"/>
+      <c r="G108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B109" s="24"/>
-      <c r="G109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
+      <c r="B109" s="15"/>
+      <c r="G109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B110" s="24"/>
-      <c r="G110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="25"/>
+      <c r="B110" s="15"/>
+      <c r="G110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B111" s="24"/>
-      <c r="G111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="25"/>
+      <c r="B111" s="15"/>
+      <c r="G111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B112" s="24"/>
-      <c r="G112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="25"/>
-      <c r="O112" s="25"/>
+      <c r="B112" s="15"/>
+      <c r="G112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B113" s="24"/>
-      <c r="G113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
+      <c r="B113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B114" s="24"/>
-      <c r="G114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="25"/>
+      <c r="B114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B115" s="24"/>
-      <c r="G115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="25"/>
-      <c r="O115" s="25"/>
+      <c r="B115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B116" s="24"/>
-      <c r="G116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="32"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="25"/>
+      <c r="B116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B117" s="24"/>
-      <c r="G117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
+      <c r="B117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B118" s="24"/>
-      <c r="G118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
+      <c r="B118" s="15"/>
+      <c r="G118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B119" s="24"/>
-      <c r="G119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="25"/>
+      <c r="B119" s="15"/>
+      <c r="G119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B120" s="24"/>
-      <c r="G120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="32"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="25"/>
+      <c r="B120" s="15"/>
+      <c r="G120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B121" s="24"/>
-      <c r="G121" s="25"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="25"/>
-      <c r="O121" s="25"/>
+      <c r="B121" s="15"/>
+      <c r="G121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B122" s="24"/>
-      <c r="G122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="32"/>
-      <c r="N122" s="25"/>
-      <c r="O122" s="25"/>
+      <c r="B122" s="15"/>
+      <c r="G122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="24"/>
-      <c r="G123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="32"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="25"/>
+      <c r="B123" s="15"/>
+      <c r="G123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B124" s="24"/>
-      <c r="G124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="32"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
+      <c r="B124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B125" s="24"/>
-      <c r="G125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="25"/>
-      <c r="O125" s="25"/>
+      <c r="B125" s="15"/>
+      <c r="G125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B126" s="24"/>
-      <c r="G126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="32"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="25"/>
+      <c r="B126" s="15"/>
+      <c r="G126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="23"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B127" s="24"/>
-      <c r="G127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="32"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25"/>
+      <c r="B127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B128" s="24"/>
-      <c r="G128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="25"/>
-      <c r="O128" s="25"/>
+      <c r="B128" s="15"/>
+      <c r="G128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B129" s="24"/>
-      <c r="G129" s="25"/>
-      <c r="K129" s="25"/>
-      <c r="L129" s="25"/>
-      <c r="M129" s="32"/>
-      <c r="N129" s="25"/>
-      <c r="O129" s="25"/>
+      <c r="B129" s="15"/>
+      <c r="G129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="23"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B130" s="24"/>
-      <c r="G130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
-      <c r="M130" s="32"/>
-      <c r="N130" s="25"/>
-      <c r="O130" s="25"/>
+      <c r="B130" s="15"/>
+      <c r="G130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B131" s="24"/>
-      <c r="G131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="32"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="25"/>
+      <c r="B131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B132" s="24"/>
-      <c r="G132" s="25"/>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="32"/>
-      <c r="N132" s="25"/>
-      <c r="O132" s="25"/>
+      <c r="B132" s="15"/>
+      <c r="G132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B133" s="24"/>
-      <c r="G133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="32"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="25"/>
+      <c r="B133" s="15"/>
+      <c r="G133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B134" s="24"/>
-      <c r="G134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="32"/>
-      <c r="N134" s="25"/>
-      <c r="O134" s="25"/>
+      <c r="B134" s="15"/>
+      <c r="G134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="23"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B135" s="24"/>
-      <c r="G135" s="25"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="32"/>
-      <c r="N135" s="25"/>
-      <c r="O135" s="25"/>
+      <c r="B135" s="15"/>
+      <c r="G135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B136" s="24"/>
-      <c r="G136" s="25"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="32"/>
-      <c r="N136" s="25"/>
-      <c r="O136" s="25"/>
+      <c r="B136" s="15"/>
+      <c r="G136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="23"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B137" s="24"/>
-      <c r="G137" s="25"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="32"/>
-      <c r="N137" s="25"/>
-      <c r="O137" s="25"/>
+      <c r="B137" s="15"/>
+      <c r="G137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="23"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B138" s="24"/>
-      <c r="G138" s="25"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="25"/>
-      <c r="M138" s="32"/>
-      <c r="N138" s="25"/>
-      <c r="O138" s="25"/>
+      <c r="B138" s="15"/>
+      <c r="G138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="23"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B139" s="24"/>
-      <c r="G139" s="25"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="32"/>
-      <c r="N139" s="25"/>
-      <c r="O139" s="25"/>
+      <c r="B139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="23"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B140" s="24"/>
-      <c r="G140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="32"/>
-      <c r="N140" s="25"/>
-      <c r="O140" s="25"/>
+      <c r="B140" s="15"/>
+      <c r="G140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="23"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B141" s="24"/>
-      <c r="G141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="32"/>
-      <c r="N141" s="25"/>
-      <c r="O141" s="25"/>
+      <c r="B141" s="15"/>
+      <c r="G141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="23"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B142" s="24"/>
-      <c r="G142" s="25"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
-      <c r="M142" s="32"/>
-      <c r="N142" s="25"/>
-      <c r="O142" s="25"/>
+      <c r="B142" s="15"/>
+      <c r="G142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B143" s="24"/>
-      <c r="G143" s="25"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="32"/>
-      <c r="N143" s="25"/>
-      <c r="O143" s="25"/>
+      <c r="B143" s="15"/>
+      <c r="G143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="23"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B144" s="24"/>
-      <c r="G144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="32"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="25"/>
+      <c r="B144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="23"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B145" s="24"/>
-      <c r="G145" s="25"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="32"/>
-      <c r="N145" s="25"/>
-      <c r="O145" s="25"/>
+      <c r="B145" s="15"/>
+      <c r="G145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="23"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B146" s="24"/>
-      <c r="G146" s="25"/>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
-      <c r="M146" s="32"/>
-      <c r="N146" s="25"/>
-      <c r="O146" s="25"/>
+      <c r="B146" s="15"/>
+      <c r="G146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B147" s="24"/>
-      <c r="G147" s="25"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="32"/>
-      <c r="N147" s="25"/>
-      <c r="O147" s="25"/>
+      <c r="B147" s="15"/>
+      <c r="G147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="23"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="16"/>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B148" s="24"/>
-      <c r="G148" s="25"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
-      <c r="M148" s="32"/>
-      <c r="N148" s="25"/>
-      <c r="O148" s="25"/>
+      <c r="B148" s="15"/>
+      <c r="G148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="23"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="16"/>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B149" s="24"/>
-      <c r="G149" s="25"/>
-      <c r="K149" s="25"/>
-      <c r="L149" s="25"/>
-      <c r="M149" s="32"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="25"/>
+      <c r="B149" s="15"/>
+      <c r="G149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B150" s="24"/>
-      <c r="G150" s="25"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="32"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="25"/>
+      <c r="B150" s="15"/>
+      <c r="G150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="16"/>
+      <c r="O150" s="16"/>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B151" s="24"/>
-      <c r="G151" s="25"/>
-      <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
-      <c r="M151" s="32"/>
-      <c r="N151" s="25"/>
-      <c r="O151" s="25"/>
+      <c r="B151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="23"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="16"/>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B152" s="24"/>
-      <c r="G152" s="25"/>
-      <c r="K152" s="25"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="32"/>
-      <c r="N152" s="25"/>
-      <c r="O152" s="25"/>
+      <c r="B152" s="15"/>
+      <c r="G152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="23"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="16"/>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B153" s="24"/>
-      <c r="G153" s="25"/>
-      <c r="K153" s="25"/>
-      <c r="L153" s="25"/>
-      <c r="M153" s="32"/>
-      <c r="N153" s="25"/>
-      <c r="O153" s="25"/>
+      <c r="B153" s="15"/>
+      <c r="G153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="23"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B154" s="24"/>
-      <c r="G154" s="25"/>
-      <c r="K154" s="25"/>
-      <c r="L154" s="25"/>
-      <c r="M154" s="32"/>
-      <c r="N154" s="25"/>
-      <c r="O154" s="25"/>
+      <c r="B154" s="15"/>
+      <c r="G154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="16"/>
+      <c r="O154" s="16"/>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B155" s="24"/>
-      <c r="G155" s="25"/>
-      <c r="K155" s="25"/>
-      <c r="L155" s="25"/>
-      <c r="M155" s="32"/>
-      <c r="N155" s="25"/>
-      <c r="O155" s="25"/>
+      <c r="B155" s="15"/>
+      <c r="G155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="23"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B156" s="24"/>
-      <c r="G156" s="25"/>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="32"/>
-      <c r="N156" s="25"/>
-      <c r="O156" s="25"/>
+      <c r="B156" s="15"/>
+      <c r="G156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B157" s="24"/>
-      <c r="G157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="32"/>
-      <c r="N157" s="25"/>
-      <c r="O157" s="25"/>
+      <c r="B157" s="15"/>
+      <c r="G157" s="16"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="16"/>
+      <c r="M157" s="23"/>
+      <c r="N157" s="16"/>
+      <c r="O157" s="16"/>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B158" s="24"/>
-      <c r="G158" s="25"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="32"/>
-      <c r="N158" s="25"/>
-      <c r="O158" s="25"/>
+      <c r="B158" s="15"/>
+      <c r="G158" s="16"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="16"/>
+      <c r="O158" s="16"/>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B159" s="24"/>
-      <c r="G159" s="25"/>
-      <c r="K159" s="25"/>
-      <c r="L159" s="25"/>
-      <c r="M159" s="32"/>
-      <c r="N159" s="25"/>
-      <c r="O159" s="25"/>
+      <c r="B159" s="15"/>
+      <c r="G159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="23"/>
+      <c r="N159" s="16"/>
+      <c r="O159" s="16"/>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B160" s="24"/>
-      <c r="G160" s="25"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="32"/>
-      <c r="N160" s="25"/>
-      <c r="O160" s="25"/>
+      <c r="B160" s="15"/>
+      <c r="G160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B161" s="24"/>
-      <c r="G161" s="25"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="32"/>
-      <c r="N161" s="25"/>
-      <c r="O161" s="25"/>
+      <c r="B161" s="15"/>
+      <c r="G161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="23"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="16"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B162" s="24"/>
-      <c r="G162" s="25"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="32"/>
-      <c r="N162" s="25"/>
-      <c r="O162" s="25"/>
+      <c r="B162" s="15"/>
+      <c r="G162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="16"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B163" s="24"/>
-      <c r="G163" s="25"/>
-      <c r="K163" s="25"/>
-      <c r="L163" s="25"/>
-      <c r="M163" s="32"/>
-      <c r="N163" s="25"/>
-      <c r="O163" s="25"/>
+      <c r="B163" s="15"/>
+      <c r="G163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="23"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="16"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B164" s="24"/>
-      <c r="G164" s="25"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="25"/>
-      <c r="M164" s="32"/>
-      <c r="N164" s="25"/>
-      <c r="O164" s="25"/>
+      <c r="B164" s="15"/>
+      <c r="G164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="23"/>
+      <c r="N164" s="16"/>
+      <c r="O164" s="16"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B165" s="24"/>
-      <c r="G165" s="25"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="25"/>
-      <c r="M165" s="32"/>
-      <c r="N165" s="25"/>
-      <c r="O165" s="25"/>
+      <c r="B165" s="15"/>
+      <c r="G165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B166" s="24"/>
-      <c r="G166" s="25"/>
-      <c r="K166" s="25"/>
-      <c r="L166" s="25"/>
-      <c r="M166" s="32"/>
-      <c r="N166" s="25"/>
-      <c r="O166" s="25"/>
+      <c r="B166" s="15"/>
+      <c r="G166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="23"/>
+      <c r="N166" s="16"/>
+      <c r="O166" s="16"/>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B167" s="24"/>
-      <c r="G167" s="25"/>
-      <c r="K167" s="25"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="32"/>
-      <c r="N167" s="25"/>
-      <c r="O167" s="25"/>
+      <c r="B167" s="15"/>
+      <c r="G167" s="16"/>
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="23"/>
+      <c r="N167" s="16"/>
+      <c r="O167" s="16"/>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B168" s="24"/>
-      <c r="G168" s="25"/>
-      <c r="K168" s="25"/>
-      <c r="L168" s="25"/>
-      <c r="M168" s="32"/>
-      <c r="N168" s="25"/>
-      <c r="O168" s="25"/>
+      <c r="B168" s="15"/>
+      <c r="G168" s="16"/>
+      <c r="K168" s="16"/>
+      <c r="L168" s="16"/>
+      <c r="M168" s="23"/>
+      <c r="N168" s="16"/>
+      <c r="O168" s="16"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B169" s="24"/>
-      <c r="G169" s="25"/>
-      <c r="K169" s="25"/>
-      <c r="L169" s="25"/>
-      <c r="M169" s="32"/>
-      <c r="N169" s="25"/>
-      <c r="O169" s="25"/>
+      <c r="B169" s="15"/>
+      <c r="G169" s="16"/>
+      <c r="K169" s="16"/>
+      <c r="L169" s="16"/>
+      <c r="M169" s="23"/>
+      <c r="N169" s="16"/>
+      <c r="O169" s="16"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B170" s="24"/>
-      <c r="G170" s="25"/>
-      <c r="K170" s="25"/>
-      <c r="L170" s="25"/>
-      <c r="M170" s="32"/>
-      <c r="N170" s="25"/>
-      <c r="O170" s="25"/>
+      <c r="B170" s="15"/>
+      <c r="G170" s="16"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="16"/>
+      <c r="M170" s="23"/>
+      <c r="N170" s="16"/>
+      <c r="O170" s="16"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B171" s="24"/>
-      <c r="G171" s="25"/>
-      <c r="K171" s="25"/>
-      <c r="L171" s="25"/>
-      <c r="M171" s="32"/>
-      <c r="N171" s="25"/>
-      <c r="O171" s="25"/>
+      <c r="B171" s="15"/>
+      <c r="G171" s="16"/>
+      <c r="K171" s="16"/>
+      <c r="L171" s="16"/>
+      <c r="M171" s="23"/>
+      <c r="N171" s="16"/>
+      <c r="O171" s="16"/>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B172" s="24"/>
-      <c r="G172" s="25"/>
-      <c r="K172" s="25"/>
-      <c r="L172" s="25"/>
-      <c r="M172" s="32"/>
-      <c r="N172" s="25"/>
-      <c r="O172" s="25"/>
+      <c r="B172" s="15"/>
+      <c r="G172" s="16"/>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="23"/>
+      <c r="N172" s="16"/>
+      <c r="O172" s="16"/>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B173" s="24"/>
-      <c r="G173" s="25"/>
-      <c r="K173" s="25"/>
-      <c r="L173" s="25"/>
-      <c r="M173" s="32"/>
-      <c r="N173" s="25"/>
-      <c r="O173" s="25"/>
+      <c r="B173" s="15"/>
+      <c r="G173" s="16"/>
+      <c r="K173" s="16"/>
+      <c r="L173" s="16"/>
+      <c r="M173" s="23"/>
+      <c r="N173" s="16"/>
+      <c r="O173" s="16"/>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B174" s="24"/>
-      <c r="G174" s="25"/>
-      <c r="K174" s="25"/>
-      <c r="L174" s="25"/>
-      <c r="M174" s="32"/>
-      <c r="N174" s="25"/>
-      <c r="O174" s="25"/>
+      <c r="B174" s="15"/>
+      <c r="G174" s="16"/>
+      <c r="K174" s="16"/>
+      <c r="L174" s="16"/>
+      <c r="M174" s="23"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B175" s="24"/>
-      <c r="G175" s="25"/>
-      <c r="K175" s="25"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="32"/>
-      <c r="N175" s="25"/>
-      <c r="O175" s="25"/>
+      <c r="B175" s="15"/>
+      <c r="G175" s="16"/>
+      <c r="K175" s="16"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="23"/>
+      <c r="N175" s="16"/>
+      <c r="O175" s="16"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B176" s="24"/>
-      <c r="G176" s="25"/>
-      <c r="K176" s="25"/>
-      <c r="L176" s="25"/>
-      <c r="M176" s="32"/>
-      <c r="N176" s="25"/>
-      <c r="O176" s="25"/>
+      <c r="B176" s="15"/>
+      <c r="G176" s="16"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="23"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B177" s="24"/>
-      <c r="G177" s="25"/>
-      <c r="K177" s="25"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="32"/>
-      <c r="N177" s="25"/>
-      <c r="O177" s="25"/>
+      <c r="B177" s="15"/>
+      <c r="G177" s="16"/>
+      <c r="K177" s="16"/>
+      <c r="L177" s="16"/>
+      <c r="M177" s="23"/>
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B178" s="24"/>
-      <c r="G178" s="25"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="32"/>
-      <c r="N178" s="25"/>
-      <c r="O178" s="25"/>
+      <c r="B178" s="15"/>
+      <c r="G178" s="16"/>
+      <c r="K178" s="16"/>
+      <c r="L178" s="16"/>
+      <c r="M178" s="23"/>
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B179" s="24"/>
-      <c r="G179" s="25"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="32"/>
-      <c r="N179" s="25"/>
-      <c r="O179" s="25"/>
+      <c r="B179" s="15"/>
+      <c r="G179" s="16"/>
+      <c r="K179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="23"/>
+      <c r="N179" s="16"/>
+      <c r="O179" s="16"/>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B180" s="24"/>
-      <c r="G180" s="25"/>
-      <c r="K180" s="25"/>
-      <c r="L180" s="25"/>
-      <c r="M180" s="32"/>
-      <c r="N180" s="25"/>
-      <c r="O180" s="25"/>
+      <c r="B180" s="15"/>
+      <c r="G180" s="16"/>
+      <c r="K180" s="16"/>
+      <c r="L180" s="16"/>
+      <c r="M180" s="23"/>
+      <c r="N180" s="16"/>
+      <c r="O180" s="16"/>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B181" s="24"/>
-      <c r="G181" s="25"/>
-      <c r="K181" s="25"/>
-      <c r="L181" s="25"/>
-      <c r="M181" s="32"/>
-      <c r="N181" s="25"/>
-      <c r="O181" s="25"/>
+      <c r="B181" s="15"/>
+      <c r="G181" s="16"/>
+      <c r="K181" s="16"/>
+      <c r="L181" s="16"/>
+      <c r="M181" s="23"/>
+      <c r="N181" s="16"/>
+      <c r="O181" s="16"/>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B182" s="24"/>
-      <c r="G182" s="25"/>
-      <c r="K182" s="25"/>
-      <c r="L182" s="25"/>
-      <c r="M182" s="32"/>
-      <c r="N182" s="25"/>
-      <c r="O182" s="25"/>
+      <c r="B182" s="15"/>
+      <c r="G182" s="16"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="23"/>
+      <c r="N182" s="16"/>
+      <c r="O182" s="16"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B183" s="24"/>
-      <c r="G183" s="25"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="32"/>
-      <c r="N183" s="25"/>
-      <c r="O183" s="25"/>
+      <c r="B183" s="15"/>
+      <c r="G183" s="16"/>
+      <c r="K183" s="16"/>
+      <c r="L183" s="16"/>
+      <c r="M183" s="23"/>
+      <c r="N183" s="16"/>
+      <c r="O183" s="16"/>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B184" s="24"/>
-      <c r="G184" s="25"/>
-      <c r="K184" s="25"/>
-      <c r="L184" s="25"/>
-      <c r="M184" s="32"/>
-      <c r="N184" s="25"/>
-      <c r="O184" s="25"/>
+      <c r="B184" s="15"/>
+      <c r="G184" s="16"/>
+      <c r="K184" s="16"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="23"/>
+      <c r="N184" s="16"/>
+      <c r="O184" s="16"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B185" s="24"/>
-      <c r="G185" s="25"/>
-      <c r="K185" s="25"/>
-      <c r="L185" s="25"/>
-      <c r="M185" s="32"/>
-      <c r="N185" s="25"/>
-      <c r="O185" s="25"/>
+      <c r="B185" s="15"/>
+      <c r="G185" s="16"/>
+      <c r="K185" s="16"/>
+      <c r="L185" s="16"/>
+      <c r="M185" s="23"/>
+      <c r="N185" s="16"/>
+      <c r="O185" s="16"/>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B186" s="24"/>
-      <c r="G186" s="25"/>
-      <c r="K186" s="25"/>
-      <c r="L186" s="25"/>
-      <c r="M186" s="32"/>
-      <c r="N186" s="25"/>
-      <c r="O186" s="25"/>
+      <c r="B186" s="15"/>
+      <c r="G186" s="16"/>
+      <c r="K186" s="16"/>
+      <c r="L186" s="16"/>
+      <c r="M186" s="23"/>
+      <c r="N186" s="16"/>
+      <c r="O186" s="16"/>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B187" s="24"/>
-      <c r="G187" s="25"/>
-      <c r="K187" s="25"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="32"/>
-      <c r="N187" s="25"/>
-      <c r="O187" s="25"/>
+      <c r="B187" s="15"/>
+      <c r="G187" s="16"/>
+      <c r="K187" s="16"/>
+      <c r="L187" s="16"/>
+      <c r="M187" s="23"/>
+      <c r="N187" s="16"/>
+      <c r="O187" s="16"/>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B188" s="24"/>
-      <c r="G188" s="25"/>
-      <c r="K188" s="25"/>
-      <c r="L188" s="25"/>
-      <c r="M188" s="32"/>
-      <c r="N188" s="25"/>
-      <c r="O188" s="25"/>
+      <c r="B188" s="15"/>
+      <c r="G188" s="16"/>
+      <c r="K188" s="16"/>
+      <c r="L188" s="16"/>
+      <c r="M188" s="23"/>
+      <c r="N188" s="16"/>
+      <c r="O188" s="16"/>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B189" s="24"/>
-      <c r="G189" s="25"/>
-      <c r="K189" s="25"/>
-      <c r="L189" s="25"/>
-      <c r="M189" s="32"/>
-      <c r="N189" s="25"/>
-      <c r="O189" s="25"/>
+      <c r="B189" s="15"/>
+      <c r="G189" s="16"/>
+      <c r="K189" s="16"/>
+      <c r="L189" s="16"/>
+      <c r="M189" s="23"/>
+      <c r="N189" s="16"/>
+      <c r="O189" s="16"/>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B190" s="24"/>
-      <c r="G190" s="25"/>
-      <c r="K190" s="25"/>
-      <c r="L190" s="25"/>
-      <c r="M190" s="32"/>
-      <c r="N190" s="25"/>
-      <c r="O190" s="25"/>
+      <c r="B190" s="15"/>
+      <c r="G190" s="16"/>
+      <c r="K190" s="16"/>
+      <c r="L190" s="16"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="16"/>
+      <c r="O190" s="16"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B191" s="24"/>
-      <c r="G191" s="25"/>
-      <c r="K191" s="25"/>
-      <c r="L191" s="25"/>
-      <c r="M191" s="32"/>
-      <c r="N191" s="25"/>
-      <c r="O191" s="25"/>
+      <c r="B191" s="15"/>
+      <c r="G191" s="16"/>
+      <c r="K191" s="16"/>
+      <c r="L191" s="16"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="16"/>
+      <c r="O191" s="16"/>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B192" s="24"/>
-      <c r="G192" s="25"/>
-      <c r="K192" s="25"/>
-      <c r="L192" s="25"/>
-      <c r="M192" s="32"/>
-      <c r="N192" s="25"/>
-      <c r="O192" s="25"/>
+      <c r="B192" s="15"/>
+      <c r="G192" s="16"/>
+      <c r="K192" s="16"/>
+      <c r="L192" s="16"/>
+      <c r="M192" s="23"/>
+      <c r="N192" s="16"/>
+      <c r="O192" s="16"/>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B193" s="24"/>
-      <c r="G193" s="25"/>
-      <c r="K193" s="25"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="32"/>
-      <c r="N193" s="25"/>
-      <c r="O193" s="25"/>
+      <c r="B193" s="15"/>
+      <c r="G193" s="16"/>
+      <c r="K193" s="16"/>
+      <c r="L193" s="16"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="16"/>
+      <c r="O193" s="16"/>
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B194" s="24"/>
-      <c r="G194" s="25"/>
-      <c r="K194" s="25"/>
-      <c r="L194" s="25"/>
-      <c r="M194" s="32"/>
-      <c r="N194" s="25"/>
-      <c r="O194" s="25"/>
+      <c r="B194" s="15"/>
+      <c r="G194" s="16"/>
+      <c r="K194" s="16"/>
+      <c r="L194" s="16"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="16"/>
+      <c r="O194" s="16"/>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B195" s="24"/>
-      <c r="G195" s="25"/>
-      <c r="K195" s="25"/>
-      <c r="L195" s="25"/>
-      <c r="M195" s="32"/>
-      <c r="N195" s="25"/>
-      <c r="O195" s="25"/>
+      <c r="B195" s="15"/>
+      <c r="G195" s="16"/>
+      <c r="K195" s="16"/>
+      <c r="L195" s="16"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="16"/>
+      <c r="O195" s="16"/>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B196" s="24"/>
-      <c r="G196" s="25"/>
-      <c r="K196" s="25"/>
-      <c r="L196" s="25"/>
-      <c r="M196" s="32"/>
-      <c r="N196" s="25"/>
-      <c r="O196" s="25"/>
+      <c r="B196" s="15"/>
+      <c r="G196" s="16"/>
+      <c r="K196" s="16"/>
+      <c r="L196" s="16"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="16"/>
+      <c r="O196" s="16"/>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B197" s="24"/>
-      <c r="G197" s="25"/>
-      <c r="K197" s="25"/>
-      <c r="L197" s="25"/>
-      <c r="M197" s="32"/>
-      <c r="N197" s="25"/>
-      <c r="O197" s="25"/>
+      <c r="B197" s="15"/>
+      <c r="G197" s="16"/>
+      <c r="K197" s="16"/>
+      <c r="L197" s="16"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="16"/>
+      <c r="O197" s="16"/>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B198" s="24"/>
-      <c r="G198" s="25"/>
-      <c r="K198" s="25"/>
-      <c r="L198" s="25"/>
-      <c r="M198" s="32"/>
-      <c r="N198" s="25"/>
-      <c r="O198" s="25"/>
+      <c r="B198" s="15"/>
+      <c r="G198" s="16"/>
+      <c r="K198" s="16"/>
+      <c r="L198" s="16"/>
+      <c r="M198" s="23"/>
+      <c r="N198" s="16"/>
+      <c r="O198" s="16"/>
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B199" s="24"/>
-      <c r="G199" s="25"/>
-      <c r="K199" s="25"/>
-      <c r="L199" s="25"/>
-      <c r="M199" s="32"/>
-      <c r="N199" s="25"/>
-      <c r="O199" s="25"/>
+      <c r="B199" s="15"/>
+      <c r="G199" s="16"/>
+      <c r="K199" s="16"/>
+      <c r="L199" s="16"/>
+      <c r="M199" s="23"/>
+      <c r="N199" s="16"/>
+      <c r="O199" s="16"/>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B200" s="24"/>
-      <c r="G200" s="25"/>
-      <c r="K200" s="25"/>
-      <c r="L200" s="25"/>
-      <c r="M200" s="32"/>
-      <c r="N200" s="25"/>
-      <c r="O200" s="25"/>
+      <c r="B200" s="15"/>
+      <c r="G200" s="16"/>
+      <c r="K200" s="16"/>
+      <c r="L200" s="16"/>
+      <c r="M200" s="23"/>
+      <c r="N200" s="16"/>
+      <c r="O200" s="16"/>
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B201" s="24"/>
-      <c r="G201" s="25"/>
-      <c r="K201" s="25"/>
-      <c r="L201" s="25"/>
-      <c r="M201" s="32"/>
-      <c r="N201" s="25"/>
-      <c r="O201" s="25"/>
+      <c r="B201" s="15"/>
+      <c r="G201" s="16"/>
+      <c r="K201" s="16"/>
+      <c r="L201" s="16"/>
+      <c r="M201" s="23"/>
+      <c r="N201" s="16"/>
+      <c r="O201" s="16"/>
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B202" s="24"/>
-      <c r="G202" s="25"/>
-      <c r="K202" s="25"/>
-      <c r="L202" s="25"/>
-      <c r="M202" s="32"/>
-      <c r="N202" s="25"/>
-      <c r="O202" s="25"/>
+      <c r="B202" s="15"/>
+      <c r="G202" s="16"/>
+      <c r="K202" s="16"/>
+      <c r="L202" s="16"/>
+      <c r="M202" s="23"/>
+      <c r="N202" s="16"/>
+      <c r="O202" s="16"/>
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B203" s="24"/>
-      <c r="G203" s="25"/>
-      <c r="K203" s="25"/>
-      <c r="L203" s="25"/>
-      <c r="M203" s="32"/>
-      <c r="N203" s="25"/>
-      <c r="O203" s="25"/>
+      <c r="B203" s="15"/>
+      <c r="G203" s="16"/>
+      <c r="K203" s="16"/>
+      <c r="L203" s="16"/>
+      <c r="M203" s="23"/>
+      <c r="N203" s="16"/>
+      <c r="O203" s="16"/>
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B204" s="24"/>
-      <c r="G204" s="25"/>
-      <c r="K204" s="25"/>
-      <c r="L204" s="25"/>
-      <c r="M204" s="32"/>
-      <c r="N204" s="25"/>
-      <c r="O204" s="25"/>
+      <c r="B204" s="15"/>
+      <c r="G204" s="16"/>
+      <c r="K204" s="16"/>
+      <c r="L204" s="16"/>
+      <c r="M204" s="23"/>
+      <c r="N204" s="16"/>
+      <c r="O204" s="16"/>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B205" s="24"/>
-      <c r="G205" s="25"/>
-      <c r="K205" s="25"/>
-      <c r="L205" s="25"/>
-      <c r="M205" s="32"/>
-      <c r="N205" s="25"/>
-      <c r="O205" s="25"/>
+      <c r="B205" s="15"/>
+      <c r="G205" s="16"/>
+      <c r="K205" s="16"/>
+      <c r="L205" s="16"/>
+      <c r="M205" s="23"/>
+      <c r="N205" s="16"/>
+      <c r="O205" s="16"/>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B206" s="24"/>
-      <c r="G206" s="25"/>
-      <c r="K206" s="25"/>
-      <c r="L206" s="25"/>
-      <c r="M206" s="32"/>
-      <c r="N206" s="25"/>
-      <c r="O206" s="25"/>
+      <c r="B206" s="15"/>
+      <c r="G206" s="16"/>
+      <c r="K206" s="16"/>
+      <c r="L206" s="16"/>
+      <c r="M206" s="23"/>
+      <c r="N206" s="16"/>
+      <c r="O206" s="16"/>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B207" s="24"/>
-      <c r="G207" s="25"/>
-      <c r="K207" s="25"/>
-      <c r="L207" s="25"/>
-      <c r="M207" s="32"/>
-      <c r="N207" s="25"/>
-      <c r="O207" s="25"/>
+      <c r="B207" s="15"/>
+      <c r="G207" s="16"/>
+      <c r="K207" s="16"/>
+      <c r="L207" s="16"/>
+      <c r="M207" s="23"/>
+      <c r="N207" s="16"/>
+      <c r="O207" s="16"/>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B208" s="24"/>
-      <c r="G208" s="25"/>
-      <c r="K208" s="25"/>
-      <c r="L208" s="25"/>
-      <c r="M208" s="32"/>
-      <c r="N208" s="25"/>
-      <c r="O208" s="25"/>
+      <c r="B208" s="15"/>
+      <c r="G208" s="16"/>
+      <c r="K208" s="16"/>
+      <c r="L208" s="16"/>
+      <c r="M208" s="23"/>
+      <c r="N208" s="16"/>
+      <c r="O208" s="16"/>
     </row>
     <row r="209" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B209" s="24"/>
-      <c r="G209" s="25"/>
-      <c r="K209" s="25"/>
-      <c r="L209" s="25"/>
-      <c r="M209" s="32"/>
-      <c r="N209" s="25"/>
-      <c r="O209" s="25"/>
+      <c r="B209" s="15"/>
+      <c r="G209" s="16"/>
+      <c r="K209" s="16"/>
+      <c r="L209" s="16"/>
+      <c r="M209" s="23"/>
+      <c r="N209" s="16"/>
+      <c r="O209" s="16"/>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B210" s="24"/>
-      <c r="G210" s="25"/>
-      <c r="K210" s="25"/>
-      <c r="L210" s="25"/>
-      <c r="M210" s="32"/>
-      <c r="N210" s="25"/>
-      <c r="O210" s="25"/>
+      <c r="B210" s="15"/>
+      <c r="G210" s="16"/>
+      <c r="K210" s="16"/>
+      <c r="L210" s="16"/>
+      <c r="M210" s="23"/>
+      <c r="N210" s="16"/>
+      <c r="O210" s="16"/>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B211" s="24"/>
-      <c r="G211" s="25"/>
-      <c r="K211" s="25"/>
-      <c r="L211" s="25"/>
-      <c r="M211" s="32"/>
-      <c r="N211" s="25"/>
-      <c r="O211" s="25"/>
+      <c r="B211" s="15"/>
+      <c r="G211" s="16"/>
+      <c r="K211" s="16"/>
+      <c r="L211" s="16"/>
+      <c r="M211" s="23"/>
+      <c r="N211" s="16"/>
+      <c r="O211" s="16"/>
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B212" s="24"/>
-      <c r="G212" s="25"/>
-      <c r="K212" s="25"/>
-      <c r="L212" s="25"/>
-      <c r="M212" s="32"/>
-      <c r="N212" s="25"/>
-      <c r="O212" s="25"/>
+      <c r="B212" s="15"/>
+      <c r="G212" s="16"/>
+      <c r="K212" s="16"/>
+      <c r="L212" s="16"/>
+      <c r="M212" s="23"/>
+      <c r="N212" s="16"/>
+      <c r="O212" s="16"/>
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B213" s="24"/>
-      <c r="G213" s="25"/>
-      <c r="K213" s="25"/>
-      <c r="L213" s="25"/>
-      <c r="M213" s="32"/>
-      <c r="N213" s="25"/>
-      <c r="O213" s="25"/>
+      <c r="B213" s="15"/>
+      <c r="G213" s="16"/>
+      <c r="K213" s="16"/>
+      <c r="L213" s="16"/>
+      <c r="M213" s="23"/>
+      <c r="N213" s="16"/>
+      <c r="O213" s="16"/>
     </row>
     <row r="214" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B214" s="24"/>
-      <c r="G214" s="25"/>
-      <c r="K214" s="25"/>
-      <c r="L214" s="25"/>
-      <c r="M214" s="32"/>
-      <c r="N214" s="25"/>
-      <c r="O214" s="25"/>
+      <c r="B214" s="15"/>
+      <c r="G214" s="16"/>
+      <c r="K214" s="16"/>
+      <c r="L214" s="16"/>
+      <c r="M214" s="23"/>
+      <c r="N214" s="16"/>
+      <c r="O214" s="16"/>
     </row>
     <row r="215" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B215" s="24"/>
-      <c r="G215" s="25"/>
-      <c r="K215" s="25"/>
-      <c r="L215" s="25"/>
-      <c r="M215" s="32"/>
-      <c r="N215" s="25"/>
-      <c r="O215" s="25"/>
+      <c r="B215" s="15"/>
+      <c r="G215" s="16"/>
+      <c r="K215" s="16"/>
+      <c r="L215" s="16"/>
+      <c r="M215" s="23"/>
+      <c r="N215" s="16"/>
+      <c r="O215" s="16"/>
     </row>
     <row r="216" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B216" s="24"/>
-      <c r="G216" s="25"/>
-      <c r="K216" s="25"/>
-      <c r="L216" s="25"/>
-      <c r="M216" s="32"/>
-      <c r="N216" s="25"/>
-      <c r="O216" s="25"/>
+      <c r="B216" s="15"/>
+      <c r="G216" s="16"/>
+      <c r="K216" s="16"/>
+      <c r="L216" s="16"/>
+      <c r="M216" s="23"/>
+      <c r="N216" s="16"/>
+      <c r="O216" s="16"/>
     </row>
     <row r="217" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B217" s="24"/>
-      <c r="G217" s="25"/>
-      <c r="K217" s="25"/>
-      <c r="L217" s="25"/>
-      <c r="M217" s="32"/>
-      <c r="N217" s="25"/>
-      <c r="O217" s="25"/>
+      <c r="B217" s="15"/>
+      <c r="G217" s="16"/>
+      <c r="K217" s="16"/>
+      <c r="L217" s="16"/>
+      <c r="M217" s="23"/>
+      <c r="N217" s="16"/>
+      <c r="O217" s="16"/>
     </row>
     <row r="218" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B218" s="24"/>
-      <c r="G218" s="25"/>
-      <c r="K218" s="25"/>
-      <c r="L218" s="25"/>
-      <c r="M218" s="32"/>
-      <c r="N218" s="25"/>
-      <c r="O218" s="25"/>
+      <c r="B218" s="15"/>
+      <c r="G218" s="16"/>
+      <c r="K218" s="16"/>
+      <c r="L218" s="16"/>
+      <c r="M218" s="23"/>
+      <c r="N218" s="16"/>
+      <c r="O218" s="16"/>
     </row>
     <row r="219" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B219" s="24"/>
-      <c r="G219" s="25"/>
-      <c r="K219" s="25"/>
-      <c r="L219" s="25"/>
-      <c r="M219" s="32"/>
-      <c r="N219" s="25"/>
-      <c r="O219" s="25"/>
+      <c r="B219" s="15"/>
+      <c r="G219" s="16"/>
+      <c r="K219" s="16"/>
+      <c r="L219" s="16"/>
+      <c r="M219" s="23"/>
+      <c r="N219" s="16"/>
+      <c r="O219" s="16"/>
     </row>
     <row r="220" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B220" s="24"/>
-      <c r="G220" s="25"/>
-      <c r="K220" s="25"/>
-      <c r="L220" s="25"/>
-      <c r="M220" s="32"/>
-      <c r="N220" s="25"/>
-      <c r="O220" s="25"/>
+      <c r="B220" s="15"/>
+      <c r="G220" s="16"/>
+      <c r="K220" s="16"/>
+      <c r="L220" s="16"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="16"/>
+      <c r="O220" s="16"/>
     </row>
     <row r="221" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B221" s="24"/>
-      <c r="G221" s="25"/>
-      <c r="K221" s="25"/>
-      <c r="L221" s="25"/>
-      <c r="M221" s="32"/>
-      <c r="N221" s="25"/>
-      <c r="O221" s="25"/>
+      <c r="B221" s="15"/>
+      <c r="G221" s="16"/>
+      <c r="K221" s="16"/>
+      <c r="L221" s="16"/>
+      <c r="M221" s="23"/>
+      <c r="N221" s="16"/>
+      <c r="O221" s="16"/>
     </row>
     <row r="222" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B222" s="24"/>
-      <c r="G222" s="25"/>
-      <c r="K222" s="25"/>
-      <c r="L222" s="25"/>
-      <c r="M222" s="32"/>
-      <c r="N222" s="25"/>
-      <c r="O222" s="25"/>
+      <c r="B222" s="15"/>
+      <c r="G222" s="16"/>
+      <c r="K222" s="16"/>
+      <c r="L222" s="16"/>
+      <c r="M222" s="23"/>
+      <c r="N222" s="16"/>
+      <c r="O222" s="16"/>
     </row>
     <row r="223" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B223" s="24"/>
-      <c r="G223" s="25"/>
-      <c r="K223" s="25"/>
-      <c r="L223" s="25"/>
-      <c r="M223" s="32"/>
-      <c r="N223" s="25"/>
-      <c r="O223" s="25"/>
+      <c r="B223" s="15"/>
+      <c r="G223" s="16"/>
+      <c r="K223" s="16"/>
+      <c r="L223" s="16"/>
+      <c r="M223" s="23"/>
+      <c r="N223" s="16"/>
+      <c r="O223" s="16"/>
     </row>
     <row r="224" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B224" s="24"/>
-      <c r="G224" s="25"/>
-      <c r="K224" s="25"/>
-      <c r="L224" s="25"/>
-      <c r="M224" s="32"/>
-      <c r="N224" s="25"/>
-      <c r="O224" s="25"/>
+      <c r="B224" s="15"/>
+      <c r="G224" s="16"/>
+      <c r="K224" s="16"/>
+      <c r="L224" s="16"/>
+      <c r="M224" s="23"/>
+      <c r="N224" s="16"/>
+      <c r="O224" s="16"/>
     </row>
     <row r="225" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B225" s="24"/>
-      <c r="G225" s="25"/>
-      <c r="K225" s="25"/>
-      <c r="L225" s="25"/>
-      <c r="M225" s="32"/>
-      <c r="N225" s="25"/>
-      <c r="O225" s="25"/>
+      <c r="B225" s="15"/>
+      <c r="G225" s="16"/>
+      <c r="K225" s="16"/>
+      <c r="L225" s="16"/>
+      <c r="M225" s="23"/>
+      <c r="N225" s="16"/>
+      <c r="O225" s="16"/>
     </row>
     <row r="226" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B226" s="24"/>
-      <c r="G226" s="25"/>
-      <c r="K226" s="25"/>
-      <c r="L226" s="25"/>
-      <c r="M226" s="32"/>
-      <c r="N226" s="25"/>
-      <c r="O226" s="25"/>
+      <c r="B226" s="15"/>
+      <c r="G226" s="16"/>
+      <c r="K226" s="16"/>
+      <c r="L226" s="16"/>
+      <c r="M226" s="23"/>
+      <c r="N226" s="16"/>
+      <c r="O226" s="16"/>
     </row>
     <row r="227" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B227" s="24"/>
-      <c r="G227" s="25"/>
-      <c r="K227" s="25"/>
-      <c r="L227" s="25"/>
-      <c r="M227" s="32"/>
-      <c r="N227" s="25"/>
-      <c r="O227" s="25"/>
+      <c r="B227" s="15"/>
+      <c r="G227" s="16"/>
+      <c r="K227" s="16"/>
+      <c r="L227" s="16"/>
+      <c r="M227" s="23"/>
+      <c r="N227" s="16"/>
+      <c r="O227" s="16"/>
     </row>
     <row r="228" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B228" s="24"/>
-      <c r="G228" s="25"/>
-      <c r="K228" s="25"/>
-      <c r="L228" s="25"/>
-      <c r="M228" s="32"/>
-      <c r="N228" s="25"/>
-      <c r="O228" s="25"/>
+      <c r="B228" s="15"/>
+      <c r="G228" s="16"/>
+      <c r="K228" s="16"/>
+      <c r="L228" s="16"/>
+      <c r="M228" s="23"/>
+      <c r="N228" s="16"/>
+      <c r="O228" s="16"/>
     </row>
     <row r="229" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B229" s="24"/>
-      <c r="G229" s="25"/>
-      <c r="K229" s="25"/>
-      <c r="L229" s="25"/>
-      <c r="M229" s="32"/>
-      <c r="N229" s="25"/>
-      <c r="O229" s="25"/>
+      <c r="B229" s="15"/>
+      <c r="G229" s="16"/>
+      <c r="K229" s="16"/>
+      <c r="L229" s="16"/>
+      <c r="M229" s="23"/>
+      <c r="N229" s="16"/>
+      <c r="O229" s="16"/>
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B230" s="24"/>
-      <c r="G230" s="25"/>
-      <c r="K230" s="25"/>
-      <c r="L230" s="25"/>
-      <c r="M230" s="32"/>
-      <c r="N230" s="25"/>
-      <c r="O230" s="25"/>
+      <c r="B230" s="15"/>
+      <c r="G230" s="16"/>
+      <c r="K230" s="16"/>
+      <c r="L230" s="16"/>
+      <c r="M230" s="23"/>
+      <c r="N230" s="16"/>
+      <c r="O230" s="16"/>
     </row>
     <row r="231" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B231" s="24"/>
-      <c r="G231" s="25"/>
-      <c r="K231" s="25"/>
-      <c r="L231" s="25"/>
-      <c r="M231" s="32"/>
-      <c r="N231" s="25"/>
-      <c r="O231" s="25"/>
+      <c r="B231" s="15"/>
+      <c r="G231" s="16"/>
+      <c r="K231" s="16"/>
+      <c r="L231" s="16"/>
+      <c r="M231" s="23"/>
+      <c r="N231" s="16"/>
+      <c r="O231" s="16"/>
     </row>
     <row r="232" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B232" s="24"/>
-      <c r="G232" s="25"/>
-      <c r="K232" s="25"/>
-      <c r="L232" s="25"/>
-      <c r="M232" s="32"/>
-      <c r="N232" s="25"/>
-      <c r="O232" s="25"/>
+      <c r="B232" s="15"/>
+      <c r="G232" s="16"/>
+      <c r="K232" s="16"/>
+      <c r="L232" s="16"/>
+      <c r="M232" s="23"/>
+      <c r="N232" s="16"/>
+      <c r="O232" s="16"/>
     </row>
     <row r="233" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B233" s="24"/>
-      <c r="G233" s="25"/>
-      <c r="K233" s="25"/>
-      <c r="L233" s="25"/>
-      <c r="M233" s="32"/>
-      <c r="N233" s="25"/>
-      <c r="O233" s="25"/>
+      <c r="B233" s="15"/>
+      <c r="G233" s="16"/>
+      <c r="K233" s="16"/>
+      <c r="L233" s="16"/>
+      <c r="M233" s="23"/>
+      <c r="N233" s="16"/>
+      <c r="O233" s="16"/>
     </row>
     <row r="234" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B234" s="24"/>
-      <c r="G234" s="25"/>
-      <c r="K234" s="25"/>
-      <c r="L234" s="25"/>
-      <c r="M234" s="32"/>
-      <c r="N234" s="25"/>
-      <c r="O234" s="25"/>
+      <c r="B234" s="15"/>
+      <c r="G234" s="16"/>
+      <c r="K234" s="16"/>
+      <c r="L234" s="16"/>
+      <c r="M234" s="23"/>
+      <c r="N234" s="16"/>
+      <c r="O234" s="16"/>
     </row>
     <row r="235" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B235" s="24"/>
-      <c r="G235" s="25"/>
-      <c r="K235" s="25"/>
-      <c r="L235" s="25"/>
-      <c r="M235" s="32"/>
-      <c r="N235" s="25"/>
-      <c r="O235" s="25"/>
+      <c r="B235" s="15"/>
+      <c r="G235" s="16"/>
+      <c r="K235" s="16"/>
+      <c r="L235" s="16"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="16"/>
+      <c r="O235" s="16"/>
     </row>
     <row r="236" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B236" s="24"/>
-      <c r="G236" s="25"/>
-      <c r="K236" s="25"/>
-      <c r="L236" s="25"/>
-      <c r="M236" s="32"/>
-      <c r="N236" s="25"/>
-      <c r="O236" s="25"/>
+      <c r="B236" s="15"/>
+      <c r="G236" s="16"/>
+      <c r="K236" s="16"/>
+      <c r="L236" s="16"/>
+      <c r="M236" s="23"/>
+      <c r="N236" s="16"/>
+      <c r="O236" s="16"/>
     </row>
     <row r="237" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B237" s="24"/>
-      <c r="G237" s="25"/>
-      <c r="K237" s="25"/>
-      <c r="L237" s="25"/>
-      <c r="M237" s="32"/>
-      <c r="N237" s="25"/>
-      <c r="O237" s="25"/>
+      <c r="B237" s="15"/>
+      <c r="G237" s="16"/>
+      <c r="K237" s="16"/>
+      <c r="L237" s="16"/>
+      <c r="M237" s="23"/>
+      <c r="N237" s="16"/>
+      <c r="O237" s="16"/>
     </row>
     <row r="238" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B238" s="24"/>
-      <c r="G238" s="25"/>
-      <c r="K238" s="25"/>
-      <c r="L238" s="25"/>
-      <c r="M238" s="32"/>
-      <c r="N238" s="25"/>
-      <c r="O238" s="25"/>
+      <c r="B238" s="15"/>
+      <c r="G238" s="16"/>
+      <c r="K238" s="16"/>
+      <c r="L238" s="16"/>
+      <c r="M238" s="23"/>
+      <c r="N238" s="16"/>
+      <c r="O238" s="16"/>
     </row>
     <row r="239" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B239" s="24"/>
-      <c r="G239" s="25"/>
-      <c r="K239" s="25"/>
-      <c r="L239" s="25"/>
-      <c r="M239" s="32"/>
-      <c r="N239" s="25"/>
-      <c r="O239" s="25"/>
+      <c r="B239" s="15"/>
+      <c r="G239" s="16"/>
+      <c r="K239" s="16"/>
+      <c r="L239" s="16"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="16"/>
+      <c r="O239" s="16"/>
     </row>
     <row r="240" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B240" s="24"/>
-      <c r="G240" s="25"/>
-      <c r="K240" s="25"/>
-      <c r="L240" s="25"/>
-      <c r="M240" s="32"/>
-      <c r="N240" s="25"/>
-      <c r="O240" s="25"/>
+      <c r="B240" s="15"/>
+      <c r="G240" s="16"/>
+      <c r="K240" s="16"/>
+      <c r="L240" s="16"/>
+      <c r="M240" s="23"/>
+      <c r="N240" s="16"/>
+      <c r="O240" s="16"/>
     </row>
     <row r="241" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B241" s="24"/>
-      <c r="G241" s="25"/>
-      <c r="K241" s="25"/>
-      <c r="L241" s="25"/>
-      <c r="M241" s="32"/>
-      <c r="N241" s="25"/>
-      <c r="O241" s="25"/>
+      <c r="B241" s="15"/>
+      <c r="G241" s="16"/>
+      <c r="K241" s="16"/>
+      <c r="L241" s="16"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="16"/>
+      <c r="O241" s="16"/>
     </row>
     <row r="242" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B242" s="24"/>
-      <c r="G242" s="25"/>
-      <c r="K242" s="25"/>
-      <c r="L242" s="25"/>
-      <c r="M242" s="32"/>
-      <c r="N242" s="25"/>
-      <c r="O242" s="25"/>
+      <c r="B242" s="15"/>
+      <c r="G242" s="16"/>
+      <c r="K242" s="16"/>
+      <c r="L242" s="16"/>
+      <c r="M242" s="23"/>
+      <c r="N242" s="16"/>
+      <c r="O242" s="16"/>
     </row>
     <row r="243" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B243" s="24"/>
-      <c r="G243" s="25"/>
-      <c r="K243" s="25"/>
-      <c r="L243" s="25"/>
-      <c r="M243" s="32"/>
-      <c r="N243" s="25"/>
-      <c r="O243" s="25"/>
+      <c r="B243" s="15"/>
+      <c r="G243" s="16"/>
+      <c r="K243" s="16"/>
+      <c r="L243" s="16"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="16"/>
+      <c r="O243" s="16"/>
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B244" s="24"/>
-      <c r="G244" s="25"/>
-      <c r="K244" s="25"/>
-      <c r="L244" s="25"/>
-      <c r="M244" s="32"/>
-      <c r="N244" s="25"/>
-      <c r="O244" s="25"/>
+      <c r="B244" s="15"/>
+      <c r="G244" s="16"/>
+      <c r="K244" s="16"/>
+      <c r="L244" s="16"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="16"/>
+      <c r="O244" s="16"/>
     </row>
     <row r="245" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B245" s="24"/>
-      <c r="G245" s="25"/>
-      <c r="K245" s="25"/>
-      <c r="L245" s="25"/>
-      <c r="M245" s="32"/>
-      <c r="N245" s="25"/>
-      <c r="O245" s="25"/>
+      <c r="B245" s="15"/>
+      <c r="G245" s="16"/>
+      <c r="K245" s="16"/>
+      <c r="L245" s="16"/>
+      <c r="M245" s="23"/>
+      <c r="N245" s="16"/>
+      <c r="O245" s="16"/>
     </row>
     <row r="246" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B246" s="24"/>
-      <c r="G246" s="25"/>
-      <c r="K246" s="25"/>
-      <c r="L246" s="25"/>
-      <c r="M246" s="32"/>
-      <c r="N246" s="25"/>
-      <c r="O246" s="25"/>
+      <c r="B246" s="15"/>
+      <c r="G246" s="16"/>
+      <c r="K246" s="16"/>
+      <c r="L246" s="16"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="16"/>
+      <c r="O246" s="16"/>
     </row>
     <row r="247" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B247" s="24"/>
-      <c r="G247" s="25"/>
-      <c r="K247" s="25"/>
-      <c r="L247" s="25"/>
-      <c r="M247" s="32"/>
-      <c r="N247" s="25"/>
-      <c r="O247" s="25"/>
+      <c r="B247" s="15"/>
+      <c r="G247" s="16"/>
+      <c r="K247" s="16"/>
+      <c r="L247" s="16"/>
+      <c r="M247" s="23"/>
+      <c r="N247" s="16"/>
+      <c r="O247" s="16"/>
     </row>
     <row r="248" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B248" s="24"/>
-      <c r="G248" s="25"/>
-      <c r="K248" s="25"/>
-      <c r="L248" s="25"/>
-      <c r="M248" s="32"/>
-      <c r="N248" s="25"/>
-      <c r="O248" s="25"/>
+      <c r="B248" s="15"/>
+      <c r="G248" s="16"/>
+      <c r="K248" s="16"/>
+      <c r="L248" s="16"/>
+      <c r="M248" s="23"/>
+      <c r="N248" s="16"/>
+      <c r="O248" s="16"/>
     </row>
     <row r="249" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B249" s="24"/>
-      <c r="G249" s="25"/>
-      <c r="K249" s="25"/>
-      <c r="L249" s="25"/>
-      <c r="M249" s="32"/>
-      <c r="N249" s="25"/>
-      <c r="O249" s="25"/>
+      <c r="B249" s="15"/>
+      <c r="G249" s="16"/>
+      <c r="K249" s="16"/>
+      <c r="L249" s="16"/>
+      <c r="M249" s="23"/>
+      <c r="N249" s="16"/>
+      <c r="O249" s="16"/>
     </row>
     <row r="250" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B250" s="24"/>
-      <c r="G250" s="25"/>
-      <c r="K250" s="25"/>
-      <c r="L250" s="25"/>
-      <c r="M250" s="32"/>
-      <c r="N250" s="25"/>
-      <c r="O250" s="25"/>
+      <c r="B250" s="15"/>
+      <c r="G250" s="16"/>
+      <c r="K250" s="16"/>
+      <c r="L250" s="16"/>
+      <c r="M250" s="23"/>
+      <c r="N250" s="16"/>
+      <c r="O250" s="16"/>
     </row>
     <row r="251" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B251" s="24"/>
-      <c r="G251" s="25"/>
-      <c r="K251" s="25"/>
-      <c r="L251" s="25"/>
-      <c r="M251" s="32"/>
-      <c r="N251" s="25"/>
-      <c r="O251" s="25"/>
+      <c r="B251" s="15"/>
+      <c r="G251" s="16"/>
+      <c r="K251" s="16"/>
+      <c r="L251" s="16"/>
+      <c r="M251" s="23"/>
+      <c r="N251" s="16"/>
+      <c r="O251" s="16"/>
     </row>
     <row r="252" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B252" s="24"/>
-      <c r="G252" s="25"/>
-      <c r="K252" s="25"/>
-      <c r="L252" s="25"/>
-      <c r="M252" s="32"/>
-      <c r="N252" s="25"/>
-      <c r="O252" s="25"/>
+      <c r="B252" s="15"/>
+      <c r="G252" s="16"/>
+      <c r="K252" s="16"/>
+      <c r="L252" s="16"/>
+      <c r="M252" s="23"/>
+      <c r="N252" s="16"/>
+      <c r="O252" s="16"/>
     </row>
     <row r="253" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B253" s="24"/>
-      <c r="G253" s="25"/>
-      <c r="K253" s="25"/>
-      <c r="L253" s="25"/>
-      <c r="M253" s="32"/>
-      <c r="N253" s="25"/>
-      <c r="O253" s="25"/>
+      <c r="B253" s="15"/>
+      <c r="G253" s="16"/>
+      <c r="K253" s="16"/>
+      <c r="L253" s="16"/>
+      <c r="M253" s="23"/>
+      <c r="N253" s="16"/>
+      <c r="O253" s="16"/>
     </row>
     <row r="254" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B254" s="24"/>
-      <c r="G254" s="25"/>
-      <c r="K254" s="25"/>
-      <c r="L254" s="25"/>
-      <c r="M254" s="32"/>
-      <c r="N254" s="25"/>
-      <c r="O254" s="25"/>
+      <c r="B254" s="15"/>
+      <c r="G254" s="16"/>
+      <c r="K254" s="16"/>
+      <c r="L254" s="16"/>
+      <c r="M254" s="23"/>
+      <c r="N254" s="16"/>
+      <c r="O254" s="16"/>
     </row>
     <row r="255" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B255" s="24"/>
-      <c r="G255" s="25"/>
-      <c r="K255" s="25"/>
-      <c r="L255" s="25"/>
-      <c r="M255" s="32"/>
-      <c r="N255" s="25"/>
-      <c r="O255" s="25"/>
+      <c r="B255" s="15"/>
+      <c r="G255" s="16"/>
+      <c r="K255" s="16"/>
+      <c r="L255" s="16"/>
+      <c r="M255" s="23"/>
+      <c r="N255" s="16"/>
+      <c r="O255" s="16"/>
     </row>
     <row r="256" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B256" s="24"/>
-      <c r="G256" s="25"/>
-      <c r="K256" s="25"/>
-      <c r="L256" s="25"/>
-      <c r="M256" s="32"/>
-      <c r="N256" s="25"/>
-      <c r="O256" s="25"/>
+      <c r="B256" s="15"/>
+      <c r="G256" s="16"/>
+      <c r="K256" s="16"/>
+      <c r="L256" s="16"/>
+      <c r="M256" s="23"/>
+      <c r="N256" s="16"/>
+      <c r="O256" s="16"/>
     </row>
     <row r="257" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B257" s="24"/>
-      <c r="G257" s="25"/>
-      <c r="K257" s="25"/>
-      <c r="L257" s="25"/>
-      <c r="M257" s="32"/>
-      <c r="N257" s="25"/>
-      <c r="O257" s="25"/>
+      <c r="B257" s="15"/>
+      <c r="G257" s="16"/>
+      <c r="K257" s="16"/>
+      <c r="L257" s="16"/>
+      <c r="M257" s="23"/>
+      <c r="N257" s="16"/>
+      <c r="O257" s="16"/>
     </row>
     <row r="258" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B258" s="24"/>
-      <c r="G258" s="25"/>
-      <c r="K258" s="25"/>
-      <c r="L258" s="25"/>
-      <c r="M258" s="32"/>
-      <c r="N258" s="25"/>
-      <c r="O258" s="25"/>
+      <c r="B258" s="15"/>
+      <c r="G258" s="16"/>
+      <c r="K258" s="16"/>
+      <c r="L258" s="16"/>
+      <c r="M258" s="23"/>
+      <c r="N258" s="16"/>
+      <c r="O258" s="16"/>
     </row>
     <row r="259" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B259" s="24"/>
-      <c r="G259" s="25"/>
-      <c r="K259" s="25"/>
-      <c r="L259" s="25"/>
-      <c r="M259" s="32"/>
-      <c r="N259" s="25"/>
-      <c r="O259" s="25"/>
+      <c r="B259" s="15"/>
+      <c r="G259" s="16"/>
+      <c r="K259" s="16"/>
+      <c r="L259" s="16"/>
+      <c r="M259" s="23"/>
+      <c r="N259" s="16"/>
+      <c r="O259" s="16"/>
     </row>
     <row r="260" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B260" s="24"/>
-      <c r="G260" s="25"/>
-      <c r="K260" s="25"/>
-      <c r="L260" s="25"/>
-      <c r="M260" s="32"/>
-      <c r="N260" s="25"/>
-      <c r="O260" s="25"/>
+      <c r="B260" s="15"/>
+      <c r="G260" s="16"/>
+      <c r="K260" s="16"/>
+      <c r="L260" s="16"/>
+      <c r="M260" s="23"/>
+      <c r="N260" s="16"/>
+      <c r="O260" s="16"/>
     </row>
     <row r="261" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B261" s="24"/>
-      <c r="G261" s="25"/>
-      <c r="K261" s="25"/>
-      <c r="L261" s="25"/>
-      <c r="M261" s="32"/>
-      <c r="N261" s="25"/>
-      <c r="O261" s="25"/>
+      <c r="B261" s="15"/>
+      <c r="G261" s="16"/>
+      <c r="K261" s="16"/>
+      <c r="L261" s="16"/>
+      <c r="M261" s="23"/>
+      <c r="N261" s="16"/>
+      <c r="O261" s="16"/>
     </row>
     <row r="262" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B262" s="24"/>
-      <c r="G262" s="25"/>
-      <c r="K262" s="25"/>
-      <c r="L262" s="25"/>
-      <c r="M262" s="32"/>
-      <c r="N262" s="25"/>
-      <c r="O262" s="25"/>
+      <c r="B262" s="15"/>
+      <c r="G262" s="16"/>
+      <c r="K262" s="16"/>
+      <c r="L262" s="16"/>
+      <c r="M262" s="23"/>
+      <c r="N262" s="16"/>
+      <c r="O262" s="16"/>
     </row>
     <row r="263" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B263" s="24"/>
-      <c r="G263" s="25"/>
-      <c r="K263" s="25"/>
-      <c r="L263" s="25"/>
-      <c r="M263" s="32"/>
-      <c r="N263" s="25"/>
-      <c r="O263" s="25"/>
+      <c r="B263" s="15"/>
+      <c r="G263" s="16"/>
+      <c r="K263" s="16"/>
+      <c r="L263" s="16"/>
+      <c r="M263" s="23"/>
+      <c r="N263" s="16"/>
+      <c r="O263" s="16"/>
     </row>
     <row r="264" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B264" s="24"/>
-      <c r="G264" s="25"/>
-      <c r="K264" s="25"/>
-      <c r="L264" s="25"/>
-      <c r="M264" s="32"/>
-      <c r="N264" s="25"/>
-      <c r="O264" s="25"/>
+      <c r="B264" s="15"/>
+      <c r="G264" s="16"/>
+      <c r="K264" s="16"/>
+      <c r="L264" s="16"/>
+      <c r="M264" s="23"/>
+      <c r="N264" s="16"/>
+      <c r="O264" s="16"/>
     </row>
     <row r="265" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B265" s="24"/>
-      <c r="G265" s="25"/>
-      <c r="K265" s="25"/>
-      <c r="L265" s="25"/>
-      <c r="M265" s="32"/>
-      <c r="N265" s="25"/>
-      <c r="O265" s="25"/>
+      <c r="B265" s="15"/>
+      <c r="G265" s="16"/>
+      <c r="K265" s="16"/>
+      <c r="L265" s="16"/>
+      <c r="M265" s="23"/>
+      <c r="N265" s="16"/>
+      <c r="O265" s="16"/>
     </row>
     <row r="266" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B266" s="24"/>
-      <c r="G266" s="25"/>
-      <c r="K266" s="25"/>
-      <c r="L266" s="25"/>
-      <c r="M266" s="32"/>
-      <c r="N266" s="25"/>
-      <c r="O266" s="25"/>
+      <c r="B266" s="15"/>
+      <c r="G266" s="16"/>
+      <c r="K266" s="16"/>
+      <c r="L266" s="16"/>
+      <c r="M266" s="23"/>
+      <c r="N266" s="16"/>
+      <c r="O266" s="16"/>
     </row>
     <row r="267" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B267" s="24"/>
-      <c r="G267" s="25"/>
-      <c r="K267" s="25"/>
-      <c r="L267" s="25"/>
-      <c r="M267" s="32"/>
-      <c r="N267" s="25"/>
-      <c r="O267" s="25"/>
+      <c r="B267" s="15"/>
+      <c r="G267" s="16"/>
+      <c r="K267" s="16"/>
+      <c r="L267" s="16"/>
+      <c r="M267" s="23"/>
+      <c r="N267" s="16"/>
+      <c r="O267" s="16"/>
     </row>
     <row r="268" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B268" s="24"/>
-      <c r="G268" s="25"/>
-      <c r="K268" s="25"/>
-      <c r="L268" s="25"/>
-      <c r="M268" s="32"/>
-      <c r="N268" s="25"/>
-      <c r="O268" s="25"/>
+      <c r="B268" s="15"/>
+      <c r="G268" s="16"/>
+      <c r="K268" s="16"/>
+      <c r="L268" s="16"/>
+      <c r="M268" s="23"/>
+      <c r="N268" s="16"/>
+      <c r="O268" s="16"/>
     </row>
     <row r="269" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B269" s="24"/>
-      <c r="G269" s="25"/>
-      <c r="K269" s="25"/>
-      <c r="L269" s="25"/>
-      <c r="M269" s="32"/>
-      <c r="N269" s="25"/>
-      <c r="O269" s="25"/>
+      <c r="B269" s="15"/>
+      <c r="G269" s="16"/>
+      <c r="K269" s="16"/>
+      <c r="L269" s="16"/>
+      <c r="M269" s="23"/>
+      <c r="N269" s="16"/>
+      <c r="O269" s="16"/>
     </row>
     <row r="270" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B270" s="24"/>
-      <c r="G270" s="25"/>
-      <c r="K270" s="25"/>
-      <c r="L270" s="25"/>
-      <c r="M270" s="32"/>
-      <c r="N270" s="25"/>
-      <c r="O270" s="25"/>
+      <c r="B270" s="15"/>
+      <c r="G270" s="16"/>
+      <c r="K270" s="16"/>
+      <c r="L270" s="16"/>
+      <c r="M270" s="23"/>
+      <c r="N270" s="16"/>
+      <c r="O270" s="16"/>
     </row>
     <row r="271" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B271" s="24"/>
-      <c r="G271" s="25"/>
-      <c r="K271" s="25"/>
-      <c r="L271" s="25"/>
-      <c r="M271" s="32"/>
-      <c r="N271" s="25"/>
-      <c r="O271" s="25"/>
+      <c r="B271" s="15"/>
+      <c r="G271" s="16"/>
+      <c r="K271" s="16"/>
+      <c r="L271" s="16"/>
+      <c r="M271" s="23"/>
+      <c r="N271" s="16"/>
+      <c r="O271" s="16"/>
     </row>
     <row r="272" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B272" s="24"/>
-      <c r="G272" s="25"/>
-      <c r="K272" s="25"/>
-      <c r="L272" s="25"/>
-      <c r="M272" s="32"/>
-      <c r="N272" s="25"/>
-      <c r="O272" s="25"/>
+      <c r="B272" s="15"/>
+      <c r="G272" s="16"/>
+      <c r="K272" s="16"/>
+      <c r="L272" s="16"/>
+      <c r="M272" s="23"/>
+      <c r="N272" s="16"/>
+      <c r="O272" s="16"/>
     </row>
     <row r="273" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B273" s="24"/>
-      <c r="G273" s="25"/>
-      <c r="K273" s="25"/>
-      <c r="L273" s="25"/>
-      <c r="M273" s="32"/>
-      <c r="N273" s="25"/>
-      <c r="O273" s="25"/>
+      <c r="B273" s="15"/>
+      <c r="G273" s="16"/>
+      <c r="K273" s="16"/>
+      <c r="L273" s="16"/>
+      <c r="M273" s="23"/>
+      <c r="N273" s="16"/>
+      <c r="O273" s="16"/>
     </row>
     <row r="274" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B274" s="24"/>
-      <c r="G274" s="25"/>
-      <c r="K274" s="25"/>
-      <c r="L274" s="25"/>
-      <c r="M274" s="32"/>
-      <c r="N274" s="25"/>
-      <c r="O274" s="25"/>
+      <c r="B274" s="15"/>
+      <c r="G274" s="16"/>
+      <c r="K274" s="16"/>
+      <c r="L274" s="16"/>
+      <c r="M274" s="23"/>
+      <c r="N274" s="16"/>
+      <c r="O274" s="16"/>
     </row>
     <row r="275" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B275" s="24"/>
-      <c r="G275" s="25"/>
-      <c r="K275" s="25"/>
-      <c r="L275" s="25"/>
-      <c r="M275" s="32"/>
-      <c r="N275" s="25"/>
-      <c r="O275" s="25"/>
+      <c r="B275" s="15"/>
+      <c r="G275" s="16"/>
+      <c r="K275" s="16"/>
+      <c r="L275" s="16"/>
+      <c r="M275" s="23"/>
+      <c r="N275" s="16"/>
+      <c r="O275" s="16"/>
     </row>
     <row r="276" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B276" s="24"/>
-      <c r="G276" s="25"/>
-      <c r="K276" s="25"/>
-      <c r="L276" s="25"/>
-      <c r="M276" s="32"/>
-      <c r="N276" s="25"/>
-      <c r="O276" s="25"/>
+      <c r="B276" s="15"/>
+      <c r="G276" s="16"/>
+      <c r="K276" s="16"/>
+      <c r="L276" s="16"/>
+      <c r="M276" s="23"/>
+      <c r="N276" s="16"/>
+      <c r="O276" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9527,12 +9557,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9759,15 +9786,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9792,18 +9831,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>